--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_25_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>629736.3181036072</v>
+        <v>624348.5629064197</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9498809.081684994</v>
+        <v>9498809.081684999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5495390.446183546</v>
+        <v>5495390.446183545</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>392.1235694235603</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>138.8863039058344</v>
       </c>
       <c r="H11" t="n">
         <v>287.7668100334217</v>
       </c>
       <c r="I11" t="n">
-        <v>10.07685458306332</v>
+        <v>10.07685458306334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.35431826606327</v>
       </c>
       <c r="T11" t="n">
-        <v>47.53877533178692</v>
+        <v>211.4217225834493</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>392.1235694235603</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>127.7446464104877</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1466,7 +1466,7 @@
         <v>104.873621816398</v>
       </c>
       <c r="H12" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.5299540640209</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V12" t="n">
-        <v>199.034662551905</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.73679258952025</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>24.15417678415415</v>
       </c>
       <c r="G13" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3102686627435</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>88.79600217561443</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.4042509883496</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>357.583311515649</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.1235694235602</v>
+        <v>103.2499102962952</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>83.62838790907857</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.873621816398</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>153.5299540640209</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3084481648472</v>
+        <v>59.92285675049528</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1751,7 +1751,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1776,13 +1776,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H16" t="n">
-        <v>140.3102686627435</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>88.79600217561443</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>153.9873617270918</v>
       </c>
       <c r="X16" t="n">
-        <v>70.06670638936322</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>345.3824399482719</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>392.1235694235602</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>357.583311515649</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>15.71827266559095</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.873621816398</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>30.58552653927304</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T18" t="n">
-        <v>153.5299540640209</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.0628906814852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H19" t="n">
-        <v>140.3102686627435</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>88.79600217561443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.4042509883496</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>135.8444031360875</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>357.583311515649</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.4217225834493</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>191.9459792388756</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.873621816398</v>
+        <v>64.79559554900622</v>
       </c>
       <c r="H21" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>111.1229202505164</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.13351189208603</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.967741803563</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>201.5769398364736</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9223063966386</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>126.7565744525307</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>392.1235694235603</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>138.9574460199078</v>
       </c>
       <c r="U23" t="n">
         <v>254.3334012193539</v>
@@ -2380,13 +2380,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>392.1235694235603</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>130.6382391000267</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2414,7 +2414,7 @@
         <v>104.873621816398</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>153.5299540640209</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>155.0286453229411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3102686627435</v>
+        <v>119.3008392070088</v>
       </c>
       <c r="I25" t="n">
-        <v>88.79600217561443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9223063966386</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.63274161784796</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>392.1235694235601</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>231.1133338426693</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>287.7668100334217</v>
       </c>
       <c r="I26" t="n">
         <v>10.07685458306334</v>
@@ -2617,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>138.9574460199076</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>86.3818254722552</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>23.58795749286439</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.873621816398</v>
       </c>
       <c r="H27" t="n">
         <v>59.93188726981874</v>
@@ -2702,7 +2702,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2724,7 +2724,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>15.19766986095181</v>
       </c>
       <c r="G28" t="n">
         <v>164.7004614809063</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.967741803563</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.4042509883496</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>195.2866782295109</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>256.0281216822085</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10.07685458306334</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.35431826606327</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>93.17305571323153</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>96.46097128903328</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T30" t="n">
         <v>153.5299540640209</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>24.28540720967102</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>14.12917878184822</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3102686627435</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.4042509883496</v>
+        <v>156.5799380210527</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="E32" t="n">
         <v>392.1235694235602</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>345.382439948272</v>
       </c>
       <c r="G32" t="n">
-        <v>392.1235694235602</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>287.7668100334217</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>103.4000202215263</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.86497594861153</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>104.873621816398</v>
@@ -3161,7 +3161,7 @@
         <v>87.47016435221904</v>
       </c>
       <c r="T33" t="n">
-        <v>153.5299540640209</v>
+        <v>95.524648993312</v>
       </c>
       <c r="U33" t="n">
         <v>195.3084481648472</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.37072178577621</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.7004614809063</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.4042509883496</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>50.439155375228</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>103.400020221526</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="G35" t="n">
-        <v>392.1235694235601</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>287.7668100334217</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>89.35431826606327</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.4217225834493</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>392.1235694235601</v>
+        <v>44.60639909875922</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>27.0258248944791</v>
       </c>
       <c r="G36" t="n">
-        <v>104.873621816398</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>153.5299540640209</v>
       </c>
       <c r="U36" t="n">
-        <v>61.08846561790308</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>109.5337455738189</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.79600217561443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>42.51214867465862</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9223063966386</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="C38" t="n">
-        <v>392.1235694235602</v>
+        <v>133.9607173648224</v>
       </c>
       <c r="D38" t="n">
-        <v>149.0343006029713</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.4217225834493</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3334012193539</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43.30861510089535</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3596,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.873621816398</v>
       </c>
       <c r="H39" t="n">
         <v>59.93188726981874</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.5299540640209</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>45.50470848788363</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.6257900199867</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.7004614809063</v>
       </c>
       <c r="H40" t="n">
-        <v>82.09581832668708</v>
+        <v>140.3102686627435</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.967741803563</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.4042509883496</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9223063966386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>345.382439948272</v>
       </c>
       <c r="E41" t="n">
-        <v>392.1235694235601</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>392.1235694235601</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>287.7668100334217</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.07685458306334</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3334012193539</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>185.328943535993</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.1235694235602</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.873621816398</v>
+        <v>42.16243982971188</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T42" t="n">
-        <v>9.891629959787997</v>
+        <v>153.5299540640209</v>
       </c>
       <c r="U42" t="n">
         <v>195.3084481648472</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>39.87490666300457</v>
+        <v>164.7004614809063</v>
       </c>
       <c r="H43" t="n">
         <v>140.3102686627435</v>
       </c>
       <c r="I43" t="n">
-        <v>88.79600217561443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.967741803563</v>
       </c>
       <c r="S43" t="n">
         <v>169.2367137667202</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>92.64396167398249</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="C44" t="n">
-        <v>392.1235694235601</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>392.1235694235601</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>392.1235694235601</v>
+        <v>291.7356574058211</v>
       </c>
       <c r="G44" t="n">
-        <v>1.694720462854619</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.07685458306334</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3334012193539</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,22 +4058,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>86.62504711200059</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>104.873621816398</v>
       </c>
       <c r="H45" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T45" t="n">
         <v>153.5299540640209</v>
@@ -4115,7 +4115,7 @@
         <v>195.3084481648472</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.004200362844779</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>123.096623137101</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>36.92636884557221</v>
       </c>
       <c r="G46" t="n">
         <v>164.7004614809063</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.4042509883496</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1124.390899153486</v>
+        <v>868.5956814588139</v>
       </c>
       <c r="C11" t="n">
-        <v>728.3064855943346</v>
+        <v>868.5956814588139</v>
       </c>
       <c r="D11" t="n">
-        <v>332.2220720351829</v>
+        <v>868.5956814588139</v>
       </c>
       <c r="E11" t="n">
-        <v>332.2220720351829</v>
+        <v>472.5112678996621</v>
       </c>
       <c r="F11" t="n">
-        <v>332.2220720351829</v>
+        <v>472.5112678996621</v>
       </c>
       <c r="G11" t="n">
         <v>332.2220720351829</v>
       </c>
       <c r="H11" t="n">
-        <v>41.54852654687808</v>
+        <v>41.54852654687809</v>
       </c>
       <c r="I11" t="n">
         <v>31.36988555388482</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1383402535931</v>
+        <v>123.1383402535935</v>
       </c>
       <c r="K11" t="n">
-        <v>281.2245652202606</v>
+        <v>281.224565220261</v>
       </c>
       <c r="L11" t="n">
-        <v>492.2897197841143</v>
+        <v>492.2897197841145</v>
       </c>
       <c r="M11" t="n">
-        <v>739.9664943026992</v>
+        <v>739.9664943026993</v>
       </c>
       <c r="N11" t="n">
-        <v>993.5195303645178</v>
+        <v>993.5195303645179</v>
       </c>
       <c r="O11" t="n">
         <v>1227.541691594864</v>
       </c>
       <c r="P11" t="n">
-        <v>1413.301286563034</v>
+        <v>1413.301286563035</v>
       </c>
       <c r="Q11" t="n">
         <v>1533.289043864328</v>
@@ -5068,25 +5068,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S11" t="n">
-        <v>1568.494277694241</v>
+        <v>1478.237390556804</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.475312712638</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="U11" t="n">
-        <v>1520.475312712638</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="V11" t="n">
-        <v>1520.475312712638</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="W11" t="n">
-        <v>1520.475312712638</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="X11" t="n">
-        <v>1520.475312712638</v>
+        <v>868.5956814588139</v>
       </c>
       <c r="Y11" t="n">
-        <v>1124.390899153486</v>
+        <v>868.5956814588139</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>678.1850216089128</v>
+        <v>500.7506039598015</v>
       </c>
       <c r="C12" t="n">
-        <v>544.1899503578586</v>
+        <v>366.7555327087472</v>
       </c>
       <c r="D12" t="n">
-        <v>427.292792577251</v>
+        <v>366.7555327087472</v>
       </c>
       <c r="E12" t="n">
-        <v>306.799976569579</v>
+        <v>246.2627167010752</v>
       </c>
       <c r="F12" t="n">
-        <v>197.8400967520836</v>
+        <v>137.3028368835798</v>
       </c>
       <c r="G12" t="n">
-        <v>91.9071454223886</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H12" t="n">
         <v>31.36988555388482</v>
@@ -5120,28 +5120,28 @@
         <v>31.36988555388482</v>
       </c>
       <c r="J12" t="n">
-        <v>78.40532047859699</v>
+        <v>78.40532047859701</v>
       </c>
       <c r="K12" t="n">
         <v>190.4490744723747</v>
       </c>
       <c r="L12" t="n">
-        <v>359.8663579428976</v>
+        <v>359.8663579428975</v>
       </c>
       <c r="M12" t="n">
-        <v>676.7838227867292</v>
+        <v>565.4078684657471</v>
       </c>
       <c r="N12" t="n">
-        <v>1064.986156516054</v>
+        <v>782.2249523551615</v>
       </c>
       <c r="O12" t="n">
-        <v>1254.332412563824</v>
+        <v>971.5712084029315</v>
       </c>
       <c r="P12" t="n">
-        <v>1398.469584274438</v>
+        <v>1174.371574633769</v>
       </c>
       <c r="Q12" t="n">
-        <v>1474.604191886112</v>
+        <v>1562.573908363093</v>
       </c>
       <c r="R12" t="n">
         <v>1568.494277694241</v>
@@ -5150,22 +5150,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T12" t="n">
-        <v>1568.494277694241</v>
+        <v>1413.413516013412</v>
       </c>
       <c r="U12" t="n">
-        <v>1568.494277694241</v>
+        <v>1216.132255240839</v>
       </c>
       <c r="V12" t="n">
-        <v>1367.449164005448</v>
+        <v>1002.420728233873</v>
       </c>
       <c r="W12" t="n">
-        <v>1154.215995741777</v>
+        <v>789.1875599702015</v>
       </c>
       <c r="X12" t="n">
-        <v>977.8900138806695</v>
+        <v>789.1875599702015</v>
       </c>
       <c r="Y12" t="n">
-        <v>818.4880542444995</v>
+        <v>629.7856003340315</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.284421790614</v>
+        <v>643.8292654881669</v>
       </c>
       <c r="C13" t="n">
-        <v>914.191049352331</v>
+        <v>472.7358930498834</v>
       </c>
       <c r="D13" t="n">
-        <v>754.696404675241</v>
+        <v>472.7358930498834</v>
       </c>
       <c r="E13" t="n">
-        <v>593.7855895435605</v>
+        <v>311.8250779182029</v>
       </c>
       <c r="F13" t="n">
-        <v>429.1544636541517</v>
+        <v>287.4269195503704</v>
       </c>
       <c r="G13" t="n">
-        <v>262.7903611481858</v>
+        <v>121.0628170444045</v>
       </c>
       <c r="H13" t="n">
         <v>121.0628170444045</v>
@@ -5199,22 +5199,22 @@
         <v>31.36988555388482</v>
       </c>
       <c r="J13" t="n">
-        <v>41.86472714437912</v>
+        <v>106.8660907757155</v>
       </c>
       <c r="K13" t="n">
-        <v>91.05836331721588</v>
+        <v>362.3399205342664</v>
       </c>
       <c r="L13" t="n">
-        <v>347.9198896542455</v>
+        <v>750.5422542635911</v>
       </c>
       <c r="M13" t="n">
-        <v>736.1222233835701</v>
+        <v>831.0050206273687</v>
       </c>
       <c r="N13" t="n">
-        <v>1124.324557112895</v>
+        <v>912.7368602420504</v>
       </c>
       <c r="O13" t="n">
-        <v>1506.665098085738</v>
+        <v>1295.077401214893</v>
       </c>
       <c r="P13" t="n">
         <v>1556.502496418657</v>
@@ -5226,25 +5226,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S13" t="n">
-        <v>1397.548102172301</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T13" t="n">
-        <v>1161.7862324871</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="U13" t="n">
-        <v>1161.7862324871</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.7862324871</v>
+        <v>1294.608532633763</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.7862324871</v>
+        <v>1294.608532633763</v>
       </c>
       <c r="X13" t="n">
-        <v>1161.7862324871</v>
+        <v>1056.264670493447</v>
       </c>
       <c r="Y13" t="n">
-        <v>1161.7862324871</v>
+        <v>831.5289718822113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="C14" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="D14" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="E14" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="F14" t="n">
-        <v>31.36988555388482</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="G14" t="n">
         <v>31.36988555388482</v>
@@ -5296,7 +5296,7 @@
         <v>1227.541691594864</v>
       </c>
       <c r="P14" t="n">
-        <v>1413.301286563035</v>
+        <v>1413.301286563034</v>
       </c>
       <c r="Q14" t="n">
         <v>1533.289043864328</v>
@@ -5311,19 +5311,19 @@
         <v>1568.494277694241</v>
       </c>
       <c r="U14" t="n">
-        <v>1568.494277694241</v>
+        <v>1311.591852220146</v>
       </c>
       <c r="V14" t="n">
-        <v>1568.494277694241</v>
+        <v>1311.591852220146</v>
       </c>
       <c r="W14" t="n">
-        <v>1184.73397682941</v>
+        <v>927.8315513553148</v>
       </c>
       <c r="X14" t="n">
-        <v>788.6495632702579</v>
+        <v>927.8315513553148</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5651497111061</v>
+        <v>823.5387126721884</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>224.8028844714596</v>
+        <v>678.1850216089128</v>
       </c>
       <c r="C15" t="n">
-        <v>140.3297653713802</v>
+        <v>544.1899503578586</v>
       </c>
       <c r="D15" t="n">
-        <v>140.3297653713802</v>
+        <v>427.292792577251</v>
       </c>
       <c r="E15" t="n">
-        <v>140.3297653713802</v>
+        <v>306.799976569579</v>
       </c>
       <c r="F15" t="n">
-        <v>31.36988555388482</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="G15" t="n">
-        <v>31.36988555388482</v>
+        <v>91.9071454223886</v>
       </c>
       <c r="H15" t="n">
         <v>31.36988555388482</v>
@@ -5360,25 +5360,25 @@
         <v>322.0737244532303</v>
       </c>
       <c r="K15" t="n">
-        <v>434.117478447008</v>
+        <v>561.1799951102481</v>
       </c>
       <c r="L15" t="n">
-        <v>603.5347619175309</v>
+        <v>730.597278580771</v>
       </c>
       <c r="M15" t="n">
-        <v>809.0762724403805</v>
+        <v>936.1387891036206</v>
       </c>
       <c r="N15" t="n">
-        <v>1025.893356329795</v>
+        <v>1152.955872993035</v>
       </c>
       <c r="O15" t="n">
-        <v>1215.239612377565</v>
+        <v>1342.302129040805</v>
       </c>
       <c r="P15" t="n">
-        <v>1359.376784088179</v>
+        <v>1486.439300751419</v>
       </c>
       <c r="Q15" t="n">
-        <v>1474.604191886112</v>
+        <v>1562.573908363093</v>
       </c>
       <c r="R15" t="n">
         <v>1568.494277694241</v>
@@ -5390,19 +5390,19 @@
         <v>1325.059814647534</v>
       </c>
       <c r="U15" t="n">
-        <v>1127.778553874961</v>
+        <v>1264.53167651572</v>
       </c>
       <c r="V15" t="n">
-        <v>914.0670268679946</v>
+        <v>1050.820149508754</v>
       </c>
       <c r="W15" t="n">
-        <v>700.8338586043234</v>
+        <v>837.5869812450828</v>
       </c>
       <c r="X15" t="n">
-        <v>524.5078767432162</v>
+        <v>837.5869812450828</v>
       </c>
       <c r="Y15" t="n">
-        <v>365.1059171070463</v>
+        <v>678.1850216089128</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.284421790614</v>
+        <v>778.9257517974244</v>
       </c>
       <c r="C16" t="n">
-        <v>914.191049352331</v>
+        <v>607.8323793591409</v>
       </c>
       <c r="D16" t="n">
-        <v>754.696404675241</v>
+        <v>448.3377346820509</v>
       </c>
       <c r="E16" t="n">
-        <v>593.7855895435605</v>
+        <v>287.4269195503704</v>
       </c>
       <c r="F16" t="n">
-        <v>429.1544636541517</v>
+        <v>287.4269195503704</v>
       </c>
       <c r="G16" t="n">
-        <v>262.7903611481858</v>
+        <v>121.0628170444045</v>
       </c>
       <c r="H16" t="n">
         <v>121.0628170444045</v>
@@ -5439,22 +5439,22 @@
         <v>106.8660907757155</v>
       </c>
       <c r="K16" t="n">
-        <v>362.3399205342664</v>
+        <v>156.0597269485523</v>
       </c>
       <c r="L16" t="n">
-        <v>582.2936995086739</v>
+        <v>347.9198896542455</v>
       </c>
       <c r="M16" t="n">
-        <v>970.4960332379984</v>
+        <v>736.1222233835701</v>
       </c>
       <c r="N16" t="n">
-        <v>1052.22787285268</v>
+        <v>1124.324557112895</v>
       </c>
       <c r="O16" t="n">
-        <v>1119.493654406783</v>
+        <v>1506.665098085738</v>
       </c>
       <c r="P16" t="n">
-        <v>1430.22853621282</v>
+        <v>1556.502496418657</v>
       </c>
       <c r="Q16" t="n">
         <v>1568.494277694241</v>
@@ -5463,25 +5463,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S16" t="n">
-        <v>1568.494277694241</v>
+        <v>1397.548102172301</v>
       </c>
       <c r="T16" t="n">
-        <v>1568.494277694241</v>
+        <v>1397.548102172301</v>
       </c>
       <c r="U16" t="n">
-        <v>1568.494277694241</v>
+        <v>1397.548102172301</v>
       </c>
       <c r="V16" t="n">
-        <v>1568.494277694241</v>
+        <v>1397.548102172301</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.494277694241</v>
+        <v>1242.005312548976</v>
       </c>
       <c r="X16" t="n">
-        <v>1497.719826795894</v>
+        <v>1003.66145040866</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.984128184659</v>
+        <v>778.9257517974244</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1172.409864135089</v>
+        <v>1184.73397682941</v>
       </c>
       <c r="C17" t="n">
-        <v>823.5387126721884</v>
+        <v>1184.73397682941</v>
       </c>
       <c r="D17" t="n">
+        <v>1184.73397682941</v>
+      </c>
+      <c r="E17" t="n">
+        <v>788.6495632702579</v>
+      </c>
+      <c r="F17" t="n">
         <v>427.4542991130366</v>
-      </c>
-      <c r="E17" t="n">
-        <v>31.36988555388482</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31.36988555388482</v>
       </c>
       <c r="G17" t="n">
         <v>31.36988555388482</v>
@@ -5521,13 +5521,13 @@
         <v>281.2245652202605</v>
       </c>
       <c r="L17" t="n">
-        <v>492.2897197841142</v>
+        <v>492.2897197841141</v>
       </c>
       <c r="M17" t="n">
-        <v>739.9664943026992</v>
+        <v>739.9664943026989</v>
       </c>
       <c r="N17" t="n">
-        <v>993.5195303645178</v>
+        <v>993.5195303645175</v>
       </c>
       <c r="O17" t="n">
         <v>1227.541691594864</v>
@@ -5554,13 +5554,13 @@
         <v>1568.494277694241</v>
       </c>
       <c r="W17" t="n">
-        <v>1568.494277694241</v>
+        <v>1184.73397682941</v>
       </c>
       <c r="X17" t="n">
-        <v>1568.494277694241</v>
+        <v>1184.73397682941</v>
       </c>
       <c r="Y17" t="n">
-        <v>1568.494277694241</v>
+        <v>1184.73397682941</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>282.2621145855467</v>
+        <v>577.1649069248618</v>
       </c>
       <c r="C18" t="n">
-        <v>148.2670433344924</v>
+        <v>443.1698356738075</v>
       </c>
       <c r="D18" t="n">
-        <v>31.36988555388482</v>
+        <v>427.292792577251</v>
       </c>
       <c r="E18" t="n">
-        <v>31.36988555388482</v>
+        <v>306.799976569579</v>
       </c>
       <c r="F18" t="n">
-        <v>31.36988555388482</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="G18" t="n">
-        <v>31.36988555388482</v>
+        <v>91.90714542238861</v>
       </c>
       <c r="H18" t="n">
         <v>31.36988555388482</v>
       </c>
       <c r="I18" t="n">
-        <v>31.36988555388482</v>
+        <v>46.70775334922028</v>
       </c>
       <c r="J18" t="n">
-        <v>78.40532047859699</v>
+        <v>337.4115922485657</v>
       </c>
       <c r="K18" t="n">
-        <v>190.4490744723747</v>
+        <v>473.2102786332673</v>
       </c>
       <c r="L18" t="n">
-        <v>359.8663579428975</v>
+        <v>642.6275621037901</v>
       </c>
       <c r="M18" t="n">
-        <v>565.4078684657471</v>
+        <v>848.1690726266397</v>
       </c>
       <c r="N18" t="n">
-        <v>782.2249523551615</v>
+        <v>1064.986156516054</v>
       </c>
       <c r="O18" t="n">
-        <v>971.5712084029315</v>
+        <v>1254.332412563824</v>
       </c>
       <c r="P18" t="n">
-        <v>1115.708380113545</v>
+        <v>1398.469584274438</v>
       </c>
       <c r="Q18" t="n">
-        <v>1503.91071384287</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R18" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S18" t="n">
-        <v>1537.59980644245</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="T18" t="n">
-        <v>1382.519044761621</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="U18" t="n">
-        <v>1185.237783989048</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="V18" t="n">
-        <v>971.5262569820817</v>
+        <v>1266.429049321397</v>
       </c>
       <c r="W18" t="n">
-        <v>758.2930887184104</v>
+        <v>1053.195881057726</v>
       </c>
       <c r="X18" t="n">
-        <v>581.9671068573033</v>
+        <v>876.8698991966185</v>
       </c>
       <c r="Y18" t="n">
-        <v>422.5651472211333</v>
+        <v>717.4679395604485</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.442370346783</v>
+        <v>357.2286327369408</v>
       </c>
       <c r="C19" t="n">
-        <v>752.3489979084995</v>
+        <v>357.2286327369408</v>
       </c>
       <c r="D19" t="n">
-        <v>592.8543532314095</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="E19" t="n">
-        <v>592.8543532314095</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="F19" t="n">
-        <v>429.1544636541517</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="G19" t="n">
-        <v>262.7903611481858</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H19" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I19" t="n">
         <v>31.36988555388482</v>
       </c>
       <c r="J19" t="n">
-        <v>41.86472714437911</v>
+        <v>106.8660907757155</v>
       </c>
       <c r="K19" t="n">
-        <v>91.05836331721585</v>
+        <v>274.7923153436614</v>
       </c>
       <c r="L19" t="n">
-        <v>347.9198896542455</v>
+        <v>662.994649072986</v>
       </c>
       <c r="M19" t="n">
-        <v>736.1222233835701</v>
+        <v>1051.196982802311</v>
       </c>
       <c r="N19" t="n">
-        <v>1124.324557112895</v>
+        <v>1439.399316531635</v>
       </c>
       <c r="O19" t="n">
         <v>1506.665098085738</v>
@@ -5700,25 +5700,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.548102172301</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T19" t="n">
-        <v>1161.7862324871</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="U19" t="n">
-        <v>1161.7862324871</v>
+        <v>1285.744473253192</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.7862324871</v>
+        <v>1011.858728192714</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.7862324871</v>
+        <v>732.7890637015882</v>
       </c>
       <c r="X19" t="n">
-        <v>923.442370346783</v>
+        <v>494.4452015612716</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.442370346783</v>
+        <v>357.2286327369408</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="C20" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="D20" t="n">
         <v>31.36988555388482</v>
@@ -5752,19 +5752,19 @@
         <v>31.36988555388482</v>
       </c>
       <c r="J20" t="n">
-        <v>123.138340253593</v>
+        <v>123.1383402535932</v>
       </c>
       <c r="K20" t="n">
-        <v>281.2245652202605</v>
+        <v>281.2245652202607</v>
       </c>
       <c r="L20" t="n">
-        <v>492.2897197841142</v>
+        <v>492.2897197841145</v>
       </c>
       <c r="M20" t="n">
-        <v>739.9664943026992</v>
+        <v>739.9664943026993</v>
       </c>
       <c r="N20" t="n">
-        <v>993.5195303645178</v>
+        <v>993.5195303645179</v>
       </c>
       <c r="O20" t="n">
         <v>1227.541691594864</v>
@@ -5782,22 +5782,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T20" t="n">
-        <v>1568.494277694241</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="U20" t="n">
-        <v>1568.494277694241</v>
+        <v>1161.052154641387</v>
       </c>
       <c r="V20" t="n">
-        <v>1568.494277694241</v>
+        <v>811.214599977868</v>
       </c>
       <c r="W20" t="n">
-        <v>1184.73397682941</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="X20" t="n">
-        <v>788.6495632702579</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5651497111061</v>
+        <v>427.4542991130366</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>569.2251417914174</v>
+        <v>577.1649069248618</v>
       </c>
       <c r="C21" t="n">
-        <v>435.2300705403632</v>
+        <v>443.1698356738075</v>
       </c>
       <c r="D21" t="n">
-        <v>318.3329127597556</v>
+        <v>326.2726778932</v>
       </c>
       <c r="E21" t="n">
-        <v>197.8400967520836</v>
+        <v>205.7798618855279</v>
       </c>
       <c r="F21" t="n">
-        <v>197.8400967520836</v>
+        <v>96.81998206803252</v>
       </c>
       <c r="G21" t="n">
-        <v>91.90714542238861</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H21" t="n">
         <v>31.36988555388482</v>
@@ -5858,25 +5858,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S21" t="n">
-        <v>1568.494277694241</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="T21" t="n">
-        <v>1568.494277694241</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="U21" t="n">
-        <v>1371.213016921668</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="V21" t="n">
-        <v>1157.501489914702</v>
+        <v>1266.429049321397</v>
       </c>
       <c r="W21" t="n">
-        <v>1045.256115924281</v>
+        <v>1053.195881057726</v>
       </c>
       <c r="X21" t="n">
-        <v>868.930134063174</v>
+        <v>876.8698991966185</v>
       </c>
       <c r="Y21" t="n">
-        <v>709.528174427004</v>
+        <v>717.4679395604485</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.9579026692583</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="C22" t="n">
-        <v>190.8645302309748</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="D22" t="n">
-        <v>31.36988555388482</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="E22" t="n">
-        <v>31.36988555388482</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="F22" t="n">
-        <v>31.36988555388482</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="G22" t="n">
-        <v>31.36988555388482</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="H22" t="n">
-        <v>31.36988555388482</v>
+        <v>82.00979655599193</v>
       </c>
       <c r="I22" t="n">
         <v>31.36988555388482</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8660907757155</v>
+        <v>41.86472714437911</v>
       </c>
       <c r="K22" t="n">
-        <v>362.3399205342664</v>
+        <v>267.4571232904679</v>
       </c>
       <c r="L22" t="n">
-        <v>582.2936995086739</v>
+        <v>655.6594570197925</v>
       </c>
       <c r="M22" t="n">
-        <v>970.4960332379984</v>
+        <v>736.1222233835701</v>
       </c>
       <c r="N22" t="n">
-        <v>1052.22787285268</v>
+        <v>1124.324557112895</v>
       </c>
       <c r="O22" t="n">
-        <v>1119.493654406783</v>
+        <v>1506.665098085738</v>
       </c>
       <c r="P22" t="n">
-        <v>1430.22853621282</v>
+        <v>1556.502496418657</v>
       </c>
       <c r="Q22" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.0723162765</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="S22" t="n">
-        <v>1352.126140754561</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T22" t="n">
-        <v>1148.513070212668</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="U22" t="n">
-        <v>865.7632657716192</v>
+        <v>1285.744473253192</v>
       </c>
       <c r="V22" t="n">
-        <v>865.7632657716192</v>
+        <v>1011.858728192714</v>
       </c>
       <c r="W22" t="n">
-        <v>586.6936012804936</v>
+        <v>732.7890637015882</v>
       </c>
       <c r="X22" t="n">
-        <v>586.6936012804936</v>
+        <v>494.4452015612716</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.9579026692583</v>
+        <v>269.7095029500363</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>437.63294010603</v>
+        <v>41.54852654687809</v>
       </c>
       <c r="C23" t="n">
         <v>41.54852654687809</v>
@@ -5989,19 +5989,19 @@
         <v>31.36988555388482</v>
       </c>
       <c r="J23" t="n">
-        <v>123.1383402535935</v>
+        <v>123.1383402535932</v>
       </c>
       <c r="K23" t="n">
-        <v>281.224565220261</v>
+        <v>281.2245652202607</v>
       </c>
       <c r="L23" t="n">
-        <v>492.2897197841145</v>
+        <v>492.2897197841144</v>
       </c>
       <c r="M23" t="n">
-        <v>739.9664943026993</v>
+        <v>739.9664943026992</v>
       </c>
       <c r="N23" t="n">
-        <v>993.5195303645179</v>
+        <v>993.5195303645178</v>
       </c>
       <c r="O23" t="n">
         <v>1227.541691594864</v>
@@ -6019,22 +6019,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T23" t="n">
-        <v>1568.494277694241</v>
+        <v>1428.133221108475</v>
       </c>
       <c r="U23" t="n">
-        <v>1311.591852220146</v>
+        <v>1171.230795634381</v>
       </c>
       <c r="V23" t="n">
-        <v>961.7542975566271</v>
+        <v>821.3932409708614</v>
       </c>
       <c r="W23" t="n">
-        <v>961.7542975566271</v>
+        <v>437.6329401060299</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6698839974752</v>
+        <v>437.6329401060299</v>
       </c>
       <c r="Y23" t="n">
-        <v>565.6698839974752</v>
+        <v>41.54852654687809</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>617.6477617404091</v>
+        <v>678.1850216089128</v>
       </c>
       <c r="C24" t="n">
-        <v>483.6526904893548</v>
+        <v>544.1899503578586</v>
       </c>
       <c r="D24" t="n">
-        <v>366.7555327087472</v>
+        <v>427.292792577251</v>
       </c>
       <c r="E24" t="n">
-        <v>246.2627167010752</v>
+        <v>306.799976569579</v>
       </c>
       <c r="F24" t="n">
-        <v>137.3028368835798</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="G24" t="n">
-        <v>31.36988555388482</v>
+        <v>91.90714542238861</v>
       </c>
       <c r="H24" t="n">
         <v>31.36988555388482</v>
@@ -6068,52 +6068,52 @@
         <v>46.70775334922028</v>
       </c>
       <c r="J24" t="n">
-        <v>93.74318827393246</v>
+        <v>337.4115922485657</v>
       </c>
       <c r="K24" t="n">
-        <v>205.7869422677102</v>
+        <v>449.4553462423435</v>
       </c>
       <c r="L24" t="n">
-        <v>593.9892759970348</v>
+        <v>618.8726297128662</v>
       </c>
       <c r="M24" t="n">
-        <v>936.1387891036211</v>
+        <v>824.4141402357159</v>
       </c>
       <c r="N24" t="n">
-        <v>1152.955872993035</v>
+        <v>1041.23122412513</v>
       </c>
       <c r="O24" t="n">
-        <v>1342.302129040806</v>
+        <v>1230.5774801729</v>
       </c>
       <c r="P24" t="n">
-        <v>1486.43930075142</v>
+        <v>1374.714651883514</v>
       </c>
       <c r="Q24" t="n">
-        <v>1562.573908363093</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R24" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S24" t="n">
-        <v>1480.140576328363</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T24" t="n">
-        <v>1325.059814647534</v>
+        <v>1413.413516013412</v>
       </c>
       <c r="U24" t="n">
-        <v>1127.778553874961</v>
+        <v>1413.413516013412</v>
       </c>
       <c r="V24" t="n">
-        <v>1127.778553874961</v>
+        <v>1199.701989006446</v>
       </c>
       <c r="W24" t="n">
-        <v>914.5453856112898</v>
+        <v>986.4688207427743</v>
       </c>
       <c r="X24" t="n">
-        <v>914.5453856112898</v>
+        <v>810.1428388816671</v>
       </c>
       <c r="Y24" t="n">
-        <v>757.9507943759958</v>
+        <v>810.1428388816671</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.284421790614</v>
+        <v>638.6453460575191</v>
       </c>
       <c r="C25" t="n">
-        <v>914.191049352331</v>
+        <v>638.6453460575191</v>
       </c>
       <c r="D25" t="n">
-        <v>754.696404675241</v>
+        <v>479.1507013804291</v>
       </c>
       <c r="E25" t="n">
-        <v>593.7855895435605</v>
+        <v>318.2398862487486</v>
       </c>
       <c r="F25" t="n">
-        <v>429.1544636541517</v>
+        <v>318.2398862487486</v>
       </c>
       <c r="G25" t="n">
-        <v>262.7903611481858</v>
+        <v>151.8757837427826</v>
       </c>
       <c r="H25" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I25" t="n">
         <v>31.36988555388482</v>
       </c>
       <c r="J25" t="n">
-        <v>106.8660907757155</v>
+        <v>41.86472714437911</v>
       </c>
       <c r="K25" t="n">
-        <v>362.3399205342664</v>
+        <v>267.4571232904679</v>
       </c>
       <c r="L25" t="n">
-        <v>708.5676597145109</v>
+        <v>655.6594570197925</v>
       </c>
       <c r="M25" t="n">
-        <v>1096.769993443836</v>
+        <v>736.1222233835701</v>
       </c>
       <c r="N25" t="n">
-        <v>1178.501833058517</v>
+        <v>1124.324557112895</v>
       </c>
       <c r="O25" t="n">
-        <v>1245.76761461262</v>
+        <v>1506.665098085738</v>
       </c>
       <c r="P25" t="n">
         <v>1556.502496418657</v>
@@ -6180,19 +6180,19 @@
         <v>1568.494277694241</v>
       </c>
       <c r="U25" t="n">
-        <v>1285.744473253192</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="V25" t="n">
-        <v>1285.744473253192</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="W25" t="n">
-        <v>1285.744473253192</v>
+        <v>1289.424613203115</v>
       </c>
       <c r="X25" t="n">
-        <v>1285.744473253192</v>
+        <v>1051.080751062799</v>
       </c>
       <c r="Y25" t="n">
-        <v>1272.984128184659</v>
+        <v>826.3450524515634</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>437.6329401060297</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="C26" t="n">
-        <v>437.6329401060297</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="D26" t="n">
-        <v>41.54852654687808</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="E26" t="n">
-        <v>41.54852654687808</v>
+        <v>728.3064855943346</v>
       </c>
       <c r="F26" t="n">
-        <v>41.54852654687808</v>
+        <v>332.2220720351829</v>
       </c>
       <c r="G26" t="n">
-        <v>41.54852654687808</v>
+        <v>332.2220720351829</v>
       </c>
       <c r="H26" t="n">
-        <v>41.54852654687808</v>
+        <v>41.54852654687809</v>
       </c>
       <c r="I26" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J26" t="n">
-        <v>123.138340253593</v>
+        <v>123.1383402535932</v>
       </c>
       <c r="K26" t="n">
-        <v>281.2245652202605</v>
+        <v>281.2245652202607</v>
       </c>
       <c r="L26" t="n">
-        <v>492.2897197841141</v>
+        <v>492.2897197841145</v>
       </c>
       <c r="M26" t="n">
-        <v>739.9664943026989</v>
+        <v>739.9664943026993</v>
       </c>
       <c r="N26" t="n">
-        <v>993.5195303645175</v>
+        <v>993.5195303645179</v>
       </c>
       <c r="O26" t="n">
         <v>1227.541691594864</v>
       </c>
       <c r="P26" t="n">
-        <v>1413.301286563034</v>
+        <v>1413.301286563035</v>
       </c>
       <c r="Q26" t="n">
-        <v>1533.289043864327</v>
+        <v>1533.289043864328</v>
       </c>
       <c r="R26" t="n">
         <v>1568.494277694241</v>
@@ -6262,16 +6262,16 @@
         <v>1311.591852220146</v>
       </c>
       <c r="V26" t="n">
-        <v>961.7542975566264</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="W26" t="n">
-        <v>577.993996691795</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="X26" t="n">
-        <v>437.6329401060297</v>
+        <v>961.7542975566269</v>
       </c>
       <c r="Y26" t="n">
-        <v>437.6329401060297</v>
+        <v>961.7542975566269</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.156585837337</v>
+        <v>472.5585454735075</v>
       </c>
       <c r="C27" t="n">
-        <v>179.1615145862827</v>
+        <v>338.5634742224532</v>
       </c>
       <c r="D27" t="n">
-        <v>91.9071454223886</v>
+        <v>221.6663164418456</v>
       </c>
       <c r="E27" t="n">
-        <v>91.9071454223886</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="F27" t="n">
-        <v>91.9071454223886</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="G27" t="n">
-        <v>91.9071454223886</v>
+        <v>91.90714542238861</v>
       </c>
       <c r="H27" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I27" t="n">
-        <v>46.70775334922027</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J27" t="n">
-        <v>337.4115922485657</v>
+        <v>322.0737244532303</v>
       </c>
       <c r="K27" t="n">
-        <v>449.4553462423435</v>
+        <v>434.117478447008</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8726297128662</v>
+        <v>603.5347619175309</v>
       </c>
       <c r="M27" t="n">
-        <v>824.4141402357159</v>
+        <v>809.0762724403805</v>
       </c>
       <c r="N27" t="n">
-        <v>1041.23122412513</v>
+        <v>1025.893356329795</v>
       </c>
       <c r="O27" t="n">
-        <v>1230.5774801729</v>
+        <v>1215.239612377565</v>
       </c>
       <c r="P27" t="n">
-        <v>1374.714651883514</v>
+        <v>1359.376784088179</v>
       </c>
       <c r="Q27" t="n">
-        <v>1474.604191886111</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R27" t="n">
         <v>1568.494277694241</v>
@@ -6335,22 +6335,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T27" t="n">
-        <v>1413.413516013411</v>
+        <v>1413.413516013412</v>
       </c>
       <c r="U27" t="n">
-        <v>1216.132255240838</v>
+        <v>1216.132255240839</v>
       </c>
       <c r="V27" t="n">
-        <v>1002.420728233872</v>
+        <v>1002.420728233873</v>
       </c>
       <c r="W27" t="n">
-        <v>789.1875599702008</v>
+        <v>789.1875599702013</v>
       </c>
       <c r="X27" t="n">
-        <v>612.8615781090937</v>
+        <v>612.8615781090941</v>
       </c>
       <c r="Y27" t="n">
-        <v>453.4596184729237</v>
+        <v>612.8615781090941</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>694.3693015192234</v>
+        <v>545.0893573075439</v>
       </c>
       <c r="C28" t="n">
-        <v>523.2759290809399</v>
+        <v>373.9959848692604</v>
       </c>
       <c r="D28" t="n">
-        <v>523.2759290809399</v>
+        <v>373.9959848692604</v>
       </c>
       <c r="E28" t="n">
-        <v>362.3651139492595</v>
+        <v>213.0851697375799</v>
       </c>
       <c r="F28" t="n">
         <v>197.7339880598508</v>
       </c>
       <c r="G28" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H28" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I28" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J28" t="n">
         <v>106.8660907757155</v>
       </c>
       <c r="K28" t="n">
-        <v>362.3399205342664</v>
+        <v>156.0597269485522</v>
       </c>
       <c r="L28" t="n">
-        <v>708.5676597145103</v>
+        <v>347.9198896542455</v>
       </c>
       <c r="M28" t="n">
-        <v>1096.769993443835</v>
+        <v>736.1222233835701</v>
       </c>
       <c r="N28" t="n">
-        <v>1178.501833058517</v>
+        <v>1124.324557112895</v>
       </c>
       <c r="O28" t="n">
-        <v>1245.767614612619</v>
+        <v>1506.665098085738</v>
       </c>
       <c r="P28" t="n">
-        <v>1556.502496418656</v>
+        <v>1556.502496418657</v>
       </c>
       <c r="Q28" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.0723162765</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="S28" t="n">
-        <v>1352.12614075456</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T28" t="n">
-        <v>1116.364271069359</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="U28" t="n">
-        <v>919.1050001304587</v>
+        <v>1285.744473253192</v>
       </c>
       <c r="V28" t="n">
-        <v>919.1050001304587</v>
+        <v>1011.858728192714</v>
       </c>
       <c r="W28" t="n">
-        <v>919.1050001304587</v>
+        <v>732.7890637015882</v>
       </c>
       <c r="X28" t="n">
-        <v>919.1050001304587</v>
+        <v>732.7890637015882</v>
       </c>
       <c r="Y28" t="n">
-        <v>694.3693015192234</v>
+        <v>732.7890637015882</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1478.237390556803</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="C29" t="n">
-        <v>1219.62312623134</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="D29" t="n">
-        <v>823.5387126721884</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="E29" t="n">
-        <v>427.4542991130366</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="F29" t="n">
-        <v>31.36988555388482</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="G29" t="n">
-        <v>31.36988555388482</v>
+        <v>41.54852654687808</v>
       </c>
       <c r="H29" t="n">
-        <v>31.36988555388482</v>
+        <v>41.54852654687808</v>
       </c>
       <c r="I29" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="J29" t="n">
-        <v>123.1383402535932</v>
+        <v>123.138340253593</v>
       </c>
       <c r="K29" t="n">
-        <v>281.224565220261</v>
+        <v>281.2245652202605</v>
       </c>
       <c r="L29" t="n">
-        <v>492.2897197841146</v>
+        <v>492.2897197841141</v>
       </c>
       <c r="M29" t="n">
-        <v>739.9664943026994</v>
+        <v>739.9664943026989</v>
       </c>
       <c r="N29" t="n">
-        <v>993.519530364518</v>
+        <v>993.5195303645175</v>
       </c>
       <c r="O29" t="n">
         <v>1227.541691594864</v>
       </c>
       <c r="P29" t="n">
-        <v>1413.301286563035</v>
+        <v>1413.301286563034</v>
       </c>
       <c r="Q29" t="n">
-        <v>1533.289043864328</v>
+        <v>1533.289043864327</v>
       </c>
       <c r="R29" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S29" t="n">
-        <v>1478.237390556803</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T29" t="n">
-        <v>1478.237390556803</v>
+        <v>1474.380080004108</v>
       </c>
       <c r="U29" t="n">
-        <v>1478.237390556803</v>
+        <v>1217.477654530013</v>
       </c>
       <c r="V29" t="n">
-        <v>1478.237390556803</v>
+        <v>1217.477654530013</v>
       </c>
       <c r="W29" t="n">
-        <v>1478.237390556803</v>
+        <v>833.7173536651813</v>
       </c>
       <c r="X29" t="n">
-        <v>1478.237390556803</v>
+        <v>437.6329401060297</v>
       </c>
       <c r="Y29" t="n">
-        <v>1478.237390556803</v>
+        <v>437.6329401060297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,61 +6533,61 @@
         <v>197.8400967520836</v>
       </c>
       <c r="G30" t="n">
-        <v>91.90714542238861</v>
+        <v>91.9071454223886</v>
       </c>
       <c r="H30" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="I30" t="n">
-        <v>46.70775334922028</v>
+        <v>46.70775334922027</v>
       </c>
       <c r="J30" t="n">
         <v>337.4115922485657</v>
       </c>
       <c r="K30" t="n">
-        <v>473.2102786332673</v>
+        <v>449.4553462423435</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6275621037901</v>
+        <v>618.8726297128662</v>
       </c>
       <c r="M30" t="n">
-        <v>848.1690726266397</v>
+        <v>824.4141402357159</v>
       </c>
       <c r="N30" t="n">
-        <v>1064.986156516054</v>
+        <v>1041.23122412513</v>
       </c>
       <c r="O30" t="n">
-        <v>1254.332412563824</v>
+        <v>1230.5774801729</v>
       </c>
       <c r="P30" t="n">
-        <v>1398.469584274438</v>
+        <v>1374.714651883514</v>
       </c>
       <c r="Q30" t="n">
-        <v>1474.604191886112</v>
+        <v>1474.604191886111</v>
       </c>
       <c r="R30" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S30" t="n">
-        <v>1568.494277694241</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="T30" t="n">
-        <v>1413.413516013412</v>
+        <v>1325.059814647533</v>
       </c>
       <c r="U30" t="n">
-        <v>1216.132255240839</v>
+        <v>1325.059814647533</v>
       </c>
       <c r="V30" t="n">
-        <v>1002.420728233873</v>
+        <v>1111.348287640567</v>
       </c>
       <c r="W30" t="n">
-        <v>1002.420728233873</v>
+        <v>1111.348287640567</v>
       </c>
       <c r="X30" t="n">
-        <v>977.8900138806695</v>
+        <v>935.0223057794599</v>
       </c>
       <c r="Y30" t="n">
-        <v>818.4880542444995</v>
+        <v>775.6203461432899</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>353.7334299230747</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="C31" t="n">
-        <v>353.7334299230747</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="D31" t="n">
-        <v>353.7334299230747</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="E31" t="n">
-        <v>353.7334299230747</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="F31" t="n">
-        <v>339.4615321636321</v>
+        <v>197.7339880598508</v>
       </c>
       <c r="G31" t="n">
-        <v>173.0974296576661</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="H31" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="I31" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="J31" t="n">
         <v>106.8660907757155</v>
       </c>
       <c r="K31" t="n">
-        <v>272.8571240597666</v>
+        <v>362.3399205342664</v>
       </c>
       <c r="L31" t="n">
-        <v>347.9198896542455</v>
+        <v>437.4026861287454</v>
       </c>
       <c r="M31" t="n">
-        <v>736.1222233835701</v>
+        <v>825.6050198580699</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.324557112895</v>
+        <v>1213.807353587395</v>
       </c>
       <c r="O31" t="n">
-        <v>1506.665098085738</v>
+        <v>1281.073135141497</v>
       </c>
       <c r="P31" t="n">
-        <v>1556.502496418657</v>
+        <v>1430.228536212819</v>
       </c>
       <c r="Q31" t="n">
         <v>1568.494277694241</v>
@@ -6651,22 +6651,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T31" t="n">
-        <v>1332.732408009039</v>
+        <v>1410.332724137622</v>
       </c>
       <c r="U31" t="n">
-        <v>1332.732408009039</v>
+        <v>1127.582919696573</v>
       </c>
       <c r="V31" t="n">
-        <v>1058.846662948561</v>
+        <v>1127.582919696573</v>
       </c>
       <c r="W31" t="n">
-        <v>779.7769984574356</v>
+        <v>848.513255205447</v>
       </c>
       <c r="X31" t="n">
-        <v>541.4331363171191</v>
+        <v>610.1693930651304</v>
       </c>
       <c r="Y31" t="n">
-        <v>541.4331363171191</v>
+        <v>385.4336944538952</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1114.212258160493</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="C32" t="n">
-        <v>1114.212258160493</v>
+        <v>1172.409864135089</v>
       </c>
       <c r="D32" t="n">
-        <v>1114.212258160493</v>
+        <v>776.3254505759376</v>
       </c>
       <c r="E32" t="n">
-        <v>718.1278446013414</v>
+        <v>380.2410370167858</v>
       </c>
       <c r="F32" t="n">
-        <v>718.1278446013414</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="G32" t="n">
-        <v>322.0434310421896</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H32" t="n">
         <v>31.36988555388482</v>
@@ -6700,19 +6700,19 @@
         <v>31.36988555388482</v>
       </c>
       <c r="J32" t="n">
-        <v>123.1383402535932</v>
+        <v>123.138340253593</v>
       </c>
       <c r="K32" t="n">
-        <v>281.2245652202607</v>
+        <v>281.2245652202605</v>
       </c>
       <c r="L32" t="n">
-        <v>492.2897197841145</v>
+        <v>492.2897197841142</v>
       </c>
       <c r="M32" t="n">
-        <v>739.9664943026993</v>
+        <v>739.9664943026992</v>
       </c>
       <c r="N32" t="n">
-        <v>993.5195303645179</v>
+        <v>993.5195303645178</v>
       </c>
       <c r="O32" t="n">
         <v>1227.541691594864</v>
@@ -6733,19 +6733,19 @@
         <v>1568.494277694241</v>
       </c>
       <c r="U32" t="n">
-        <v>1464.049812824012</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="V32" t="n">
-        <v>1114.212258160493</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="W32" t="n">
-        <v>1114.212258160493</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="X32" t="n">
-        <v>1114.212258160493</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="Y32" t="n">
-        <v>1114.212258160493</v>
+        <v>1568.494277694241</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>314.7372545326912</v>
+        <v>423.6971343501866</v>
       </c>
       <c r="C33" t="n">
-        <v>314.7372545326912</v>
+        <v>423.6971343501866</v>
       </c>
       <c r="D33" t="n">
-        <v>197.8400967520836</v>
+        <v>306.799976569579</v>
       </c>
       <c r="E33" t="n">
-        <v>197.8400967520836</v>
+        <v>306.799976569579</v>
       </c>
       <c r="F33" t="n">
         <v>197.8400967520836</v>
@@ -6779,28 +6779,28 @@
         <v>46.70775334922028</v>
       </c>
       <c r="J33" t="n">
-        <v>93.74318827393246</v>
+        <v>337.4115922485657</v>
       </c>
       <c r="K33" t="n">
-        <v>205.7869422677102</v>
+        <v>449.4553462423435</v>
       </c>
       <c r="L33" t="n">
-        <v>593.9892759970348</v>
+        <v>618.8726297128662</v>
       </c>
       <c r="M33" t="n">
-        <v>936.1387891036211</v>
+        <v>824.4141402357159</v>
       </c>
       <c r="N33" t="n">
-        <v>1152.955872993035</v>
+        <v>1041.23122412513</v>
       </c>
       <c r="O33" t="n">
-        <v>1342.302129040806</v>
+        <v>1230.5774801729</v>
       </c>
       <c r="P33" t="n">
-        <v>1486.439300751419</v>
+        <v>1374.714651883514</v>
       </c>
       <c r="Q33" t="n">
-        <v>1562.573908363093</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R33" t="n">
         <v>1568.494277694241</v>
@@ -6809,22 +6809,22 @@
         <v>1480.140576328363</v>
       </c>
       <c r="T33" t="n">
-        <v>1325.059814647534</v>
+        <v>1383.651031890674</v>
       </c>
       <c r="U33" t="n">
-        <v>1127.778553874961</v>
+        <v>1186.369771118101</v>
       </c>
       <c r="V33" t="n">
-        <v>914.0670268679946</v>
+        <v>972.6582441111351</v>
       </c>
       <c r="W33" t="n">
-        <v>700.8338586043234</v>
+        <v>759.4250758474639</v>
       </c>
       <c r="X33" t="n">
-        <v>524.5078767432162</v>
+        <v>583.0990939863566</v>
       </c>
       <c r="Y33" t="n">
-        <v>365.1059171070463</v>
+        <v>423.6971343501866</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>830.960364410686</v>
+        <v>504.0926580530408</v>
       </c>
       <c r="C34" t="n">
-        <v>659.8669919724025</v>
+        <v>504.0926580530408</v>
       </c>
       <c r="D34" t="n">
-        <v>500.3723472953126</v>
+        <v>504.0926580530408</v>
       </c>
       <c r="E34" t="n">
-        <v>339.4615321636321</v>
+        <v>504.0926580530408</v>
       </c>
       <c r="F34" t="n">
         <v>339.4615321636321</v>
@@ -6867,16 +6867,16 @@
         <v>750.5422542635911</v>
       </c>
       <c r="M34" t="n">
-        <v>1138.744587992916</v>
+        <v>831.0050206273687</v>
       </c>
       <c r="N34" t="n">
-        <v>1220.476427607598</v>
+        <v>912.7368602420504</v>
       </c>
       <c r="O34" t="n">
-        <v>1287.7422091617</v>
+        <v>1119.493654406783</v>
       </c>
       <c r="P34" t="n">
-        <v>1556.502496418657</v>
+        <v>1430.22853621282</v>
       </c>
       <c r="Q34" t="n">
         <v>1568.494277694241</v>
@@ -6885,25 +6885,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S34" t="n">
-        <v>1397.548102172301</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T34" t="n">
-        <v>1161.7862324871</v>
+        <v>1332.732408009039</v>
       </c>
       <c r="U34" t="n">
-        <v>1161.7862324871</v>
+        <v>1332.732408009039</v>
       </c>
       <c r="V34" t="n">
-        <v>887.9004874266216</v>
+        <v>1058.846662948561</v>
       </c>
       <c r="W34" t="n">
-        <v>887.9004874266216</v>
+        <v>779.7769984574356</v>
       </c>
       <c r="X34" t="n">
-        <v>887.9004874266216</v>
+        <v>728.828356664276</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.9004874266216</v>
+        <v>504.0926580530408</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>822.5723094715695</v>
+        <v>823.5387126721884</v>
       </c>
       <c r="C35" t="n">
-        <v>822.5723094715695</v>
+        <v>823.5387126721884</v>
       </c>
       <c r="D35" t="n">
-        <v>822.5723094715695</v>
+        <v>823.5387126721884</v>
       </c>
       <c r="E35" t="n">
-        <v>718.1278446013412</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="F35" t="n">
-        <v>718.1278446013412</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="G35" t="n">
-        <v>322.0434310421896</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H35" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I35" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J35" t="n">
         <v>123.138340253593</v>
@@ -6943,46 +6943,46 @@
         <v>281.2245652202605</v>
       </c>
       <c r="L35" t="n">
-        <v>492.2897197841139</v>
+        <v>492.2897197841142</v>
       </c>
       <c r="M35" t="n">
-        <v>739.9664943026987</v>
+        <v>739.9664943026992</v>
       </c>
       <c r="N35" t="n">
-        <v>993.5195303645173</v>
+        <v>993.5195303645178</v>
       </c>
       <c r="O35" t="n">
         <v>1227.541691594864</v>
       </c>
       <c r="P35" t="n">
-        <v>1413.301286563034</v>
+        <v>1413.301286563035</v>
       </c>
       <c r="Q35" t="n">
-        <v>1533.289043864327</v>
+        <v>1533.289043864328</v>
       </c>
       <c r="R35" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S35" t="n">
-        <v>1568.494277694241</v>
+        <v>1478.237390556803</v>
       </c>
       <c r="T35" t="n">
-        <v>1568.494277694241</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="U35" t="n">
-        <v>1568.494277694241</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="V35" t="n">
-        <v>1218.656723030721</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="W35" t="n">
-        <v>1218.656723030721</v>
+        <v>1264.680095017966</v>
       </c>
       <c r="X35" t="n">
-        <v>822.5723094715695</v>
+        <v>1219.62312623134</v>
       </c>
       <c r="Y35" t="n">
-        <v>822.5723094715695</v>
+        <v>1219.62312623134</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>448.7323257837454</v>
+        <v>313.1565858373375</v>
       </c>
       <c r="C36" t="n">
-        <v>314.7372545326911</v>
+        <v>179.1615145862832</v>
       </c>
       <c r="D36" t="n">
-        <v>197.8400967520836</v>
+        <v>179.1615145862832</v>
       </c>
       <c r="E36" t="n">
-        <v>197.8400967520836</v>
+        <v>58.66869857861118</v>
       </c>
       <c r="F36" t="n">
-        <v>197.8400967520836</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="G36" t="n">
-        <v>91.9071454223886</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H36" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I36" t="n">
-        <v>46.70775334922027</v>
+        <v>46.70775334922028</v>
       </c>
       <c r="J36" t="n">
-        <v>93.74318827393245</v>
+        <v>93.74318827393246</v>
       </c>
       <c r="K36" t="n">
-        <v>317.1148330915373</v>
+        <v>205.7869422677102</v>
       </c>
       <c r="L36" t="n">
-        <v>486.5321165620601</v>
+        <v>375.204225738233</v>
       </c>
       <c r="M36" t="n">
-        <v>692.0736270849097</v>
+        <v>580.7457362610826</v>
       </c>
       <c r="N36" t="n">
-        <v>908.8907109743241</v>
+        <v>797.5628201504969</v>
       </c>
       <c r="O36" t="n">
-        <v>1098.236967022094</v>
+        <v>986.909076198267</v>
       </c>
       <c r="P36" t="n">
-        <v>1486.439300751419</v>
+        <v>1131.046247908881</v>
       </c>
       <c r="Q36" t="n">
-        <v>1562.573908363093</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R36" t="n">
         <v>1568.494277694241</v>
@@ -7046,22 +7046,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T36" t="n">
-        <v>1413.413516013411</v>
+        <v>1413.413516013412</v>
       </c>
       <c r="U36" t="n">
-        <v>1351.707995187247</v>
+        <v>1216.132255240839</v>
       </c>
       <c r="V36" t="n">
-        <v>1137.99646818028</v>
+        <v>1002.420728233873</v>
       </c>
       <c r="W36" t="n">
-        <v>924.7632999166092</v>
+        <v>789.1875599702013</v>
       </c>
       <c r="X36" t="n">
-        <v>748.437318055502</v>
+        <v>612.8615781090941</v>
       </c>
       <c r="Y36" t="n">
-        <v>589.0353584193321</v>
+        <v>453.4596184729241</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>280.5574617214944</v>
+        <v>638.6453460575191</v>
       </c>
       <c r="C37" t="n">
-        <v>280.5574617214944</v>
+        <v>467.5519736192356</v>
       </c>
       <c r="D37" t="n">
-        <v>121.0628170444045</v>
+        <v>356.911826574974</v>
       </c>
       <c r="E37" t="n">
-        <v>121.0628170444045</v>
+        <v>196.0010114432935</v>
       </c>
       <c r="F37" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="G37" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H37" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I37" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J37" t="n">
-        <v>106.8660907757155</v>
+        <v>41.86472714437911</v>
       </c>
       <c r="K37" t="n">
-        <v>156.0597269485522</v>
+        <v>91.05836331721585</v>
       </c>
       <c r="L37" t="n">
-        <v>544.2620606778768</v>
+        <v>347.9198896542455</v>
       </c>
       <c r="M37" t="n">
-        <v>916.3187572923756</v>
+        <v>736.1222233835701</v>
       </c>
       <c r="N37" t="n">
-        <v>998.0505969070573</v>
+        <v>1124.324557112895</v>
       </c>
       <c r="O37" t="n">
-        <v>1380.3911378799</v>
+        <v>1506.665098085738</v>
       </c>
       <c r="P37" t="n">
-        <v>1430.228536212819</v>
+        <v>1556.502496418657</v>
       </c>
       <c r="Q37" t="n">
         <v>1568.494277694241</v>
@@ -7122,25 +7122,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S37" t="n">
-        <v>1397.548102172301</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T37" t="n">
-        <v>1354.606537854464</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="U37" t="n">
-        <v>1071.856733413415</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="V37" t="n">
-        <v>797.9709883529367</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="W37" t="n">
-        <v>518.9013238618111</v>
+        <v>1289.424613203115</v>
       </c>
       <c r="X37" t="n">
-        <v>280.5574617214944</v>
+        <v>1051.080751062799</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.5574617214944</v>
+        <v>826.3450524515634</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>577.9939966917955</v>
+        <v>958.8525685962511</v>
       </c>
       <c r="C38" t="n">
-        <v>181.9095831326437</v>
+        <v>823.538712672188</v>
       </c>
       <c r="D38" t="n">
-        <v>31.36988555388482</v>
+        <v>823.538712672188</v>
       </c>
       <c r="E38" t="n">
-        <v>31.36988555388482</v>
+        <v>427.4542991130364</v>
       </c>
       <c r="F38" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="G38" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="H38" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="I38" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="J38" t="n">
-        <v>123.1383402535932</v>
+        <v>123.138340253593</v>
       </c>
       <c r="K38" t="n">
-        <v>281.2245652202607</v>
+        <v>281.2245652202605</v>
       </c>
       <c r="L38" t="n">
-        <v>492.2897197841145</v>
+        <v>492.2897197841141</v>
       </c>
       <c r="M38" t="n">
-        <v>739.9664943026993</v>
+        <v>739.9664943026989</v>
       </c>
       <c r="N38" t="n">
-        <v>993.5195303645179</v>
+        <v>993.5195303645175</v>
       </c>
       <c r="O38" t="n">
         <v>1227.541691594864</v>
       </c>
       <c r="P38" t="n">
-        <v>1413.301286563035</v>
+        <v>1413.301286563034</v>
       </c>
       <c r="Q38" t="n">
-        <v>1533.289043864328</v>
+        <v>1533.289043864327</v>
       </c>
       <c r="R38" t="n">
         <v>1568.494277694241</v>
@@ -7204,22 +7204,22 @@
         <v>1568.494277694241</v>
       </c>
       <c r="T38" t="n">
-        <v>1568.494277694241</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.591852220146</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="V38" t="n">
-        <v>961.7542975566269</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="W38" t="n">
-        <v>577.9939966917955</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="X38" t="n">
-        <v>577.9939966917955</v>
+        <v>1354.936982155403</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.9939966917955</v>
+        <v>1354.936982155403</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.359841247556</v>
+        <v>678.1850216089128</v>
       </c>
       <c r="C39" t="n">
-        <v>321.359841247556</v>
+        <v>544.1899503578586</v>
       </c>
       <c r="D39" t="n">
-        <v>321.359841247556</v>
+        <v>427.292792577251</v>
       </c>
       <c r="E39" t="n">
-        <v>200.867025239884</v>
+        <v>306.799976569579</v>
       </c>
       <c r="F39" t="n">
-        <v>91.90714542238861</v>
+        <v>197.8400967520836</v>
       </c>
       <c r="G39" t="n">
-        <v>91.90714542238861</v>
+        <v>91.9071454223886</v>
       </c>
       <c r="H39" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="I39" t="n">
-        <v>31.36988555388482</v>
+        <v>46.70775334922027</v>
       </c>
       <c r="J39" t="n">
-        <v>78.40532047859699</v>
+        <v>337.4115922485657</v>
       </c>
       <c r="K39" t="n">
-        <v>190.4490744723747</v>
+        <v>449.4553462423435</v>
       </c>
       <c r="L39" t="n">
-        <v>578.6514082016993</v>
+        <v>618.8726297128662</v>
       </c>
       <c r="M39" t="n">
-        <v>784.1929187245489</v>
+        <v>824.4141402357159</v>
       </c>
       <c r="N39" t="n">
-        <v>1001.010002613963</v>
+        <v>1041.23122412513</v>
       </c>
       <c r="O39" t="n">
-        <v>1254.332412563824</v>
+        <v>1230.5774801729</v>
       </c>
       <c r="P39" t="n">
-        <v>1398.469584274438</v>
+        <v>1374.714651883514</v>
       </c>
       <c r="Q39" t="n">
-        <v>1474.604191886112</v>
+        <v>1474.604191886111</v>
       </c>
       <c r="R39" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S39" t="n">
-        <v>1480.140576328363</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T39" t="n">
-        <v>1325.059814647534</v>
+        <v>1413.413516013411</v>
       </c>
       <c r="U39" t="n">
-        <v>1127.778553874961</v>
+        <v>1413.413516013411</v>
       </c>
       <c r="V39" t="n">
-        <v>914.0670268679946</v>
+        <v>1367.449164005448</v>
       </c>
       <c r="W39" t="n">
-        <v>700.8338586043234</v>
+        <v>1154.215995741777</v>
       </c>
       <c r="X39" t="n">
-        <v>524.5078767432162</v>
+        <v>977.8900138806695</v>
       </c>
       <c r="Y39" t="n">
-        <v>365.1059171070463</v>
+        <v>818.4880542444995</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280.6590570767064</v>
+        <v>779.7769984574352</v>
       </c>
       <c r="C40" t="n">
-        <v>280.6590570767064</v>
+        <v>779.7769984574352</v>
       </c>
       <c r="D40" t="n">
-        <v>280.6590570767064</v>
+        <v>665.0034731847213</v>
       </c>
       <c r="E40" t="n">
-        <v>280.6590570767064</v>
+        <v>504.0926580530408</v>
       </c>
       <c r="F40" t="n">
-        <v>280.6590570767064</v>
+        <v>339.4615321636321</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2949545707405</v>
+        <v>173.0974296576661</v>
       </c>
       <c r="H40" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="I40" t="n">
-        <v>31.36988555388482</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="J40" t="n">
-        <v>41.86472714437911</v>
+        <v>106.8660907757155</v>
       </c>
       <c r="K40" t="n">
-        <v>91.05836331721585</v>
+        <v>362.3399205342664</v>
       </c>
       <c r="L40" t="n">
-        <v>221.6459294484085</v>
+        <v>708.5676597145103</v>
       </c>
       <c r="M40" t="n">
-        <v>609.8482631777331</v>
+        <v>1096.769993443835</v>
       </c>
       <c r="N40" t="n">
-        <v>998.0505969070578</v>
+        <v>1178.501833058517</v>
       </c>
       <c r="O40" t="n">
-        <v>1380.391137879901</v>
+        <v>1245.767614612619</v>
       </c>
       <c r="P40" t="n">
-        <v>1430.22853621282</v>
+        <v>1556.502496418656</v>
       </c>
       <c r="Q40" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="R40" t="n">
-        <v>1523.0723162765</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="S40" t="n">
-        <v>1352.126140754561</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T40" t="n">
-        <v>1116.364271069359</v>
+        <v>1332.732408009039</v>
       </c>
       <c r="U40" t="n">
-        <v>833.6144666283101</v>
+        <v>1332.732408009039</v>
       </c>
       <c r="V40" t="n">
-        <v>559.7287215678321</v>
+        <v>1058.846662948561</v>
       </c>
       <c r="W40" t="n">
-        <v>280.6590570767064</v>
+        <v>779.7769984574352</v>
       </c>
       <c r="X40" t="n">
-        <v>280.6590570767064</v>
+        <v>779.7769984574352</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.6590570767064</v>
+        <v>779.7769984574352</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1124.390899153486</v>
+        <v>776.3254505759376</v>
       </c>
       <c r="C41" t="n">
-        <v>1124.390899153486</v>
+        <v>776.3254505759376</v>
       </c>
       <c r="D41" t="n">
-        <v>1124.390899153486</v>
+        <v>427.4542991130366</v>
       </c>
       <c r="E41" t="n">
-        <v>728.3064855943345</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="F41" t="n">
-        <v>728.3064855943345</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="G41" t="n">
-        <v>332.2220720351829</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="H41" t="n">
-        <v>41.54852654687808</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I41" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J41" t="n">
         <v>123.138340253593</v>
@@ -7417,13 +7417,13 @@
         <v>281.2245652202605</v>
       </c>
       <c r="L41" t="n">
-        <v>492.2897197841141</v>
+        <v>492.289719784114</v>
       </c>
       <c r="M41" t="n">
-        <v>739.9664943026989</v>
+        <v>739.9664943026988</v>
       </c>
       <c r="N41" t="n">
-        <v>993.5195303645175</v>
+        <v>993.5195303645174</v>
       </c>
       <c r="O41" t="n">
         <v>1227.541691594864</v>
@@ -7432,7 +7432,7 @@
         <v>1413.301286563034</v>
       </c>
       <c r="Q41" t="n">
-        <v>1533.289043864327</v>
+        <v>1533.289043864328</v>
       </c>
       <c r="R41" t="n">
         <v>1568.494277694241</v>
@@ -7444,19 +7444,19 @@
         <v>1568.494277694241</v>
       </c>
       <c r="U41" t="n">
-        <v>1311.591852220146</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="V41" t="n">
-        <v>1124.390899153486</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="W41" t="n">
-        <v>1124.390899153486</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="X41" t="n">
-        <v>1124.390899153486</v>
+        <v>1172.409864135089</v>
       </c>
       <c r="Y41" t="n">
-        <v>1124.390899153486</v>
+        <v>776.3254505759376</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>617.6477617404091</v>
+        <v>614.840393339533</v>
       </c>
       <c r="C42" t="n">
-        <v>483.6526904893548</v>
+        <v>480.8453220884787</v>
       </c>
       <c r="D42" t="n">
-        <v>366.7555327087472</v>
+        <v>363.9481643078711</v>
       </c>
       <c r="E42" t="n">
-        <v>246.2627167010752</v>
+        <v>243.4553483001991</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3028368835798</v>
+        <v>134.4954684827036</v>
       </c>
       <c r="G42" t="n">
-        <v>31.36988555388481</v>
+        <v>91.90714542238861</v>
       </c>
       <c r="H42" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I42" t="n">
-        <v>46.70775334922027</v>
+        <v>46.70775334922028</v>
       </c>
       <c r="J42" t="n">
         <v>337.4115922485657</v>
@@ -7511,31 +7511,31 @@
         <v>1374.714651883514</v>
       </c>
       <c r="Q42" t="n">
-        <v>1562.573908363093</v>
+        <v>1474.604191886112</v>
       </c>
       <c r="R42" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S42" t="n">
-        <v>1568.494277694241</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="T42" t="n">
-        <v>1558.502732280313</v>
+        <v>1325.059814647534</v>
       </c>
       <c r="U42" t="n">
-        <v>1361.22147150774</v>
+        <v>1127.778553874961</v>
       </c>
       <c r="V42" t="n">
-        <v>1147.509944500774</v>
+        <v>1127.778553874961</v>
       </c>
       <c r="W42" t="n">
-        <v>934.2767762371029</v>
+        <v>914.5453856112896</v>
       </c>
       <c r="X42" t="n">
-        <v>757.9507943759958</v>
+        <v>914.5453856112896</v>
       </c>
       <c r="Y42" t="n">
-        <v>757.9507943759958</v>
+        <v>755.1434259751196</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>467.6991705355789</v>
+        <v>510.5549046019156</v>
       </c>
       <c r="C43" t="n">
-        <v>467.6991705355789</v>
+        <v>339.4615321636321</v>
       </c>
       <c r="D43" t="n">
-        <v>467.6991705355789</v>
+        <v>339.4615321636321</v>
       </c>
       <c r="E43" t="n">
-        <v>467.6991705355789</v>
+        <v>339.4615321636321</v>
       </c>
       <c r="F43" t="n">
-        <v>303.0680446461702</v>
+        <v>339.4615321636321</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7903611481858</v>
+        <v>173.0974296576661</v>
       </c>
       <c r="H43" t="n">
-        <v>121.0628170444045</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="I43" t="n">
-        <v>31.36988555388481</v>
+        <v>31.36988555388482</v>
       </c>
       <c r="J43" t="n">
-        <v>106.8660907757155</v>
+        <v>41.86472714437911</v>
       </c>
       <c r="K43" t="n">
-        <v>362.3399205342664</v>
+        <v>297.33855690293</v>
       </c>
       <c r="L43" t="n">
-        <v>750.542254263591</v>
+        <v>685.5408906322546</v>
       </c>
       <c r="M43" t="n">
-        <v>970.4960332379979</v>
+        <v>766.0036569960322</v>
       </c>
       <c r="N43" t="n">
-        <v>1052.22787285268</v>
+        <v>847.7354966107139</v>
       </c>
       <c r="O43" t="n">
-        <v>1119.493654406782</v>
+        <v>1119.493654406783</v>
       </c>
       <c r="P43" t="n">
-        <v>1430.228536212819</v>
+        <v>1430.22853621282</v>
       </c>
       <c r="Q43" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="R43" t="n">
-        <v>1568.494277694241</v>
+        <v>1523.0723162765</v>
       </c>
       <c r="S43" t="n">
-        <v>1397.548102172301</v>
+        <v>1352.126140754561</v>
       </c>
       <c r="T43" t="n">
-        <v>1397.548102172301</v>
+        <v>1116.364271069359</v>
       </c>
       <c r="U43" t="n">
-        <v>1397.548102172301</v>
+        <v>1116.364271069359</v>
       </c>
       <c r="V43" t="n">
-        <v>1397.548102172301</v>
+        <v>842.4785260088811</v>
       </c>
       <c r="W43" t="n">
-        <v>1118.478437681175</v>
+        <v>842.4785260088811</v>
       </c>
       <c r="X43" t="n">
-        <v>880.1345755408586</v>
+        <v>604.1346638685645</v>
       </c>
       <c r="Y43" t="n">
-        <v>655.3988769296233</v>
+        <v>510.5549046019156</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.334965082708</v>
+        <v>732.3154223341319</v>
       </c>
       <c r="C44" t="n">
-        <v>825.2505515235564</v>
+        <v>732.3154223341319</v>
       </c>
       <c r="D44" t="n">
-        <v>429.1661379644048</v>
+        <v>336.2310087749802</v>
       </c>
       <c r="E44" t="n">
-        <v>429.1661379644048</v>
+        <v>336.2310087749802</v>
       </c>
       <c r="F44" t="n">
-        <v>33.08172440525311</v>
+        <v>41.54852654687808</v>
       </c>
       <c r="G44" t="n">
-        <v>31.36988555388481</v>
+        <v>41.54852654687808</v>
       </c>
       <c r="H44" t="n">
-        <v>31.36988555388481</v>
+        <v>41.54852654687808</v>
       </c>
       <c r="I44" t="n">
         <v>31.36988555388481</v>
@@ -7651,16 +7651,16 @@
         <v>123.138340253593</v>
       </c>
       <c r="K44" t="n">
-        <v>281.2245652202603</v>
+        <v>281.2245652202605</v>
       </c>
       <c r="L44" t="n">
-        <v>492.2897197841139</v>
+        <v>492.2897197841141</v>
       </c>
       <c r="M44" t="n">
-        <v>739.9664943026988</v>
+        <v>739.9664943026989</v>
       </c>
       <c r="N44" t="n">
-        <v>993.5195303645174</v>
+        <v>993.5195303645175</v>
       </c>
       <c r="O44" t="n">
         <v>1227.541691594864</v>
@@ -7681,19 +7681,19 @@
         <v>1478.237390556803</v>
       </c>
       <c r="U44" t="n">
-        <v>1221.334965082708</v>
+        <v>1478.237390556803</v>
       </c>
       <c r="V44" t="n">
-        <v>1221.334965082708</v>
+        <v>1128.399835893284</v>
       </c>
       <c r="W44" t="n">
-        <v>1221.334965082708</v>
+        <v>1128.399835893284</v>
       </c>
       <c r="X44" t="n">
-        <v>1221.334965082708</v>
+        <v>1128.399835893284</v>
       </c>
       <c r="Y44" t="n">
-        <v>1221.334965082708</v>
+        <v>1128.399835893284</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>678.1850216089128</v>
+        <v>224.8028844714592</v>
       </c>
       <c r="C45" t="n">
-        <v>544.1899503578586</v>
+        <v>137.3028368835798</v>
       </c>
       <c r="D45" t="n">
-        <v>427.292792577251</v>
+        <v>137.3028368835798</v>
       </c>
       <c r="E45" t="n">
-        <v>306.799976569579</v>
+        <v>137.3028368835798</v>
       </c>
       <c r="F45" t="n">
-        <v>197.8400967520836</v>
+        <v>137.3028368835798</v>
       </c>
       <c r="G45" t="n">
-        <v>91.9071454223886</v>
+        <v>31.36988555388481</v>
       </c>
       <c r="H45" t="n">
         <v>31.36988555388481</v>
@@ -7748,31 +7748,31 @@
         <v>1374.714651883514</v>
       </c>
       <c r="Q45" t="n">
-        <v>1562.573908363093</v>
+        <v>1474.604191886111</v>
       </c>
       <c r="R45" t="n">
         <v>1568.494277694241</v>
       </c>
       <c r="S45" t="n">
-        <v>1568.494277694241</v>
+        <v>1480.140576328363</v>
       </c>
       <c r="T45" t="n">
-        <v>1413.413516013411</v>
+        <v>1325.059814647533</v>
       </c>
       <c r="U45" t="n">
-        <v>1216.132255240838</v>
+        <v>1127.77855387496</v>
       </c>
       <c r="V45" t="n">
-        <v>1216.132255240838</v>
+        <v>914.0670268679942</v>
       </c>
       <c r="W45" t="n">
-        <v>1002.899086977167</v>
+        <v>700.8338586043229</v>
       </c>
       <c r="X45" t="n">
-        <v>826.5731051160599</v>
+        <v>524.5078767432158</v>
       </c>
       <c r="Y45" t="n">
-        <v>818.4880542444995</v>
+        <v>365.1059171070458</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.0364280460501</v>
+        <v>637.5471985627102</v>
       </c>
       <c r="C46" t="n">
-        <v>879.0364280460501</v>
+        <v>466.4538261244267</v>
       </c>
       <c r="D46" t="n">
-        <v>754.696404675241</v>
+        <v>466.4538261244267</v>
       </c>
       <c r="E46" t="n">
-        <v>593.7855895435605</v>
+        <v>466.4538261244267</v>
       </c>
       <c r="F46" t="n">
         <v>429.1544636541517</v>
@@ -7812,16 +7812,16 @@
         <v>362.3399205342664</v>
       </c>
       <c r="L46" t="n">
-        <v>536.7206888671487</v>
+        <v>582.2936995086734</v>
       </c>
       <c r="M46" t="n">
-        <v>924.9230225964733</v>
+        <v>970.4960332379979</v>
       </c>
       <c r="N46" t="n">
-        <v>1313.125356325798</v>
+        <v>1052.22787285268</v>
       </c>
       <c r="O46" t="n">
-        <v>1380.3911378799</v>
+        <v>1119.493654406782</v>
       </c>
       <c r="P46" t="n">
         <v>1430.228536212819</v>
@@ -7833,25 +7833,25 @@
         <v>1568.494277694241</v>
       </c>
       <c r="S46" t="n">
-        <v>1397.548102172301</v>
+        <v>1568.494277694241</v>
       </c>
       <c r="T46" t="n">
-        <v>1161.786232487099</v>
+        <v>1332.732408009039</v>
       </c>
       <c r="U46" t="n">
-        <v>879.0364280460501</v>
+        <v>1049.98260356799</v>
       </c>
       <c r="V46" t="n">
-        <v>879.0364280460501</v>
+        <v>1049.98260356799</v>
       </c>
       <c r="W46" t="n">
-        <v>879.0364280460501</v>
+        <v>1049.98260356799</v>
       </c>
       <c r="X46" t="n">
-        <v>879.0364280460501</v>
+        <v>1049.98260356799</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.0364280460501</v>
+        <v>825.2469049567545</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.272662681173664</v>
+        <v>4.272662681173671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>112.5009639605878</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>173.1164139797074</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.25575204062963</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>315.2199253713644</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>183.6351118611623</v>
+        <v>316.3025940756017</v>
       </c>
       <c r="M13" t="n">
-        <v>310.8480478439868</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>309.5661556713565</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>213.7249463341865</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.3459764275153</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.48767695581724</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>146.3545589696247</v>
+        <v>117.9771687992064</v>
       </c>
       <c r="M16" t="n">
         <v>310.8480478439868</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>309.5661556713565</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.272662681173671</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>23.99488120295334</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>315.2199253713644</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.25575204062931</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>119.9319074698072</v>
       </c>
       <c r="L19" t="n">
-        <v>183.6351118611623</v>
+        <v>316.3025940756017</v>
       </c>
       <c r="M19" t="n">
         <v>310.8480478439868</v>
@@ -9336,7 +9336,7 @@
         <v>309.5661556713565</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>178.1805656295475</v>
       </c>
       <c r="L22" t="n">
-        <v>146.3545589696247</v>
+        <v>316.3025940756017</v>
       </c>
       <c r="M22" t="n">
-        <v>310.8480478439868</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>309.5661556713565</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>220.995000261416</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>137.9878813977137</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>23.99488120295328</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>178.1805656295475</v>
       </c>
       <c r="L25" t="n">
-        <v>273.9040137229955</v>
+        <v>316.3025940756017</v>
       </c>
       <c r="M25" t="n">
-        <v>310.8480478439869</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>309.5661556713565</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.76545843403778</v>
+        <v>4.272662681173671</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.99488120295281</v>
+        <v>39.48767695581749</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10035,22 +10035,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>273.9040137229949</v>
+        <v>117.9771687992064</v>
       </c>
       <c r="M28" t="n">
-        <v>310.8480478439867</v>
+        <v>310.8480478439868</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>309.5661556713565</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>23.99488120295334</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>23.99488120295281</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10272,25 +10272,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>117.9771687992064</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>310.8480478439868</v>
+        <v>310.8480478439867</v>
       </c>
       <c r="N31" t="n">
-        <v>309.5661556713565</v>
+        <v>309.5661556713564</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>100.321214887276</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>220.995000261416</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>137.9878813977137</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>23.99488120295328</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,19 +10515,19 @@
         <v>316.3025940756017</v>
       </c>
       <c r="M34" t="n">
-        <v>310.8480478439868</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>140.9000127380097</v>
       </c>
       <c r="P34" t="n">
-        <v>221.1342312364018</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>112.4524149735628</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>246.5304666855663</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>270.1245821874313</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>316.3025940756016</v>
+        <v>183.6351118611623</v>
       </c>
       <c r="M37" t="n">
-        <v>294.5393234855769</v>
+        <v>310.8480478439868</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>309.5661556713565</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.272662681173671</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>220.995000261416</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>64.62237767887967</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>23.99488120295281</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>56.08565710779158</v>
+        <v>273.9040137229949</v>
       </c>
       <c r="M40" t="n">
-        <v>310.8480478439868</v>
+        <v>310.8480478439867</v>
       </c>
       <c r="N40" t="n">
-        <v>309.5661556713565</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.853180674651</v>
+        <v>23.99488120295328</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>316.3025940756016</v>
+        <v>316.3025940756017</v>
       </c>
       <c r="M43" t="n">
-        <v>140.9000127380094</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>206.5579557999658</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.853180674651</v>
+        <v>23.99488120295281</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>100.3212148872761</v>
+        <v>146.3545589696243</v>
       </c>
       <c r="M46" t="n">
         <v>310.8480478439867</v>
       </c>
       <c r="N46" t="n">
-        <v>309.5661556713563</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23260,19 +23260,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>13.89977535630231</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>8.295721184309798</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>18.07324390471194</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6849312194575</v>
+        <v>263.7986273136231</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.35431826606327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>163.8829472516624</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3334012193539</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>4.513394429176685</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.803736897830561</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>11.15535589874303</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>87.47016435221904</v>
       </c>
       <c r="T12" t="n">
-        <v>153.5299540640209</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3084481648472</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>12.53974918499148</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.0859167405837</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>138.8306378463605</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3102686627435</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>44.967741803563</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U13" t="n">
         <v>279.9223063966386</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>13.99539844428432</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,10 +23506,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>59.23679641020027</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6849312194575</v>
+        <v>10.56136179589726</v>
       </c>
       <c r="H14" t="n">
         <v>287.7668100334217</v>
@@ -23551,7 +23551,7 @@
         <v>211.4217225834493</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3334012193539</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.513394429176742</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.803736897830561</v>
+        <v>293.6773960250956</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>49.02673262946517</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.873621816398</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>135.3855914143519</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.3102686627435</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>44.967741803563</v>
       </c>
       <c r="S16" t="n">
-        <v>169.2367137667202</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.4042509883496</v>
@@ -23715,10 +23715,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>122.2916061191226</v>
       </c>
       <c r="X16" t="n">
-        <v>165.8937171295502</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.99539844428432</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64090483159066</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>8.295721184309798</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>18.073243904712</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>59.23679641020027</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6849312194575</v>
+        <v>10.56136179589726</v>
       </c>
       <c r="H17" t="n">
         <v>287.7668100334217</v>
@@ -23794,7 +23794,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>100.0099135372105</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.873621816398</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>56.88463781294601</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.5299540640209</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9219239490294342</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.3102686627435</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.79600217561443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>44.967741803563</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9223063966386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>86.64393848903538</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>42.83597909222101</v>
+        <v>8.295721184309798</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -24022,22 +24022,22 @@
         <v>89.35431826606327</v>
       </c>
       <c r="T20" t="n">
-        <v>211.4217225834493</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3334012193539</v>
+        <v>62.38742198047828</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.513394429176742</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.803736897830561</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>40.07802626739178</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>153.5299540640209</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>99.97791633051813</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24147,7 +24147,7 @@
         <v>140.3102686627435</v>
       </c>
       <c r="I22" t="n">
-        <v>88.79600217561443</v>
+        <v>38.6624902835284</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.967741803563</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T22" t="n">
-        <v>31.82731115187602</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>279.3623934153139</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>13.89977535630226</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24259,7 +24259,7 @@
         <v>89.35431826606327</v>
       </c>
       <c r="T23" t="n">
-        <v>211.4217225834493</v>
+        <v>72.46427656354152</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.513394429176685</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>4.803736897830561</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>8.261763209204048</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.779294716867184</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.00942945573465</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.79600217561443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>233.4042509883496</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.855600007275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>8.295721184309912</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>179.0834794856029</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>24.69653850228906</v>
       </c>
       <c r="G26" t="n">
         <v>402.6849312194575</v>
       </c>
       <c r="H26" t="n">
-        <v>287.7668100334217</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>257.6795178328293</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24527,16 +24527,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>29.34636073054628</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>95.6999303547309</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>104.873621816398</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.7871447695628</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.967741803563</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U28" t="n">
-        <v>84.63562816712766</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>149.995223097654</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>8.295721184309798</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>18.073243904712</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>24.69653850228906</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6849312194575</v>
+        <v>10.56136179589737</v>
       </c>
       <c r="H29" t="n">
         <v>287.7668100334217</v>
       </c>
       <c r="I29" t="n">
-        <v>10.07685458306334</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>89.35431826606327</v>
       </c>
       <c r="T29" t="n">
-        <v>211.4217225834493</v>
+        <v>118.2486668702178</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3334012193539</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>4.513394429176856</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>42.43903102019748</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>150.2773148328251</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>148.8556358486664</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.3102686627435</v>
       </c>
       <c r="I31" t="n">
         <v>88.79600217561443</v>
@@ -24891,13 +24891,13 @@
         <v>169.2367137667202</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>76.82431296729692</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9223063966386</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>13.89977535630231</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>8.295721184309798</v>
       </c>
       <c r="E32" t="n">
         <v>18.073243904712</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>71.43766797757735</v>
       </c>
       <c r="G32" t="n">
-        <v>10.56136179589726</v>
+        <v>402.6849312194575</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.7668100334217</v>
       </c>
       <c r="I32" t="n">
         <v>10.07685458306334</v>
@@ -24973,10 +24973,10 @@
         <v>211.4217225834493</v>
       </c>
       <c r="U32" t="n">
-        <v>150.9333809978276</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.03502636061923</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -25007,7 +25007,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>58.00530507070893</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.4519875443277</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>44.967741803563</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>185.5212681436855</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>13.99539844428432</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,16 +25162,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>306.7967931067462</v>
+        <v>18.073243904712</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>24.69653850228906</v>
       </c>
       <c r="G35" t="n">
-        <v>10.56136179589737</v>
+        <v>402.6849312194575</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>287.7668100334217</v>
       </c>
       <c r="I35" t="n">
         <v>10.07685458306334</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>89.35431826606327</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.4217225834493</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3334012193539</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>4.513394429176856</v>
+        <v>352.0305647539778</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>80.84445612484136</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.873621816398</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>134.2199825469442</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.36595265650016</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.7004614809063</v>
@@ -25332,7 +25332,7 @@
         <v>140.3102686627435</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>88.79600217561443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>44.967741803563</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T37" t="n">
-        <v>190.892102313691</v>
+        <v>233.4042509883496</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>13.99539844428443</v>
       </c>
       <c r="C38" t="n">
-        <v>13.89977535630231</v>
+        <v>272.0626274150401</v>
       </c>
       <c r="D38" t="n">
-        <v>251.3849900048987</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>18.07324390471211</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>24.69653850228917</v>
       </c>
       <c r="G38" t="n">
         <v>402.6849312194575</v>
@@ -25444,16 +25444,16 @@
         <v>89.35431826606327</v>
       </c>
       <c r="T38" t="n">
-        <v>211.4217225834493</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.59138720833542</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.873621816398</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>87.47016435221904</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3084481648472</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>166.0697032490129</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>44.27390821033235</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>58.2144503360564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>88.79600217561443</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.967741803563</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9223063966386</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>55.03685065959809</v>
       </c>
       <c r="E41" t="n">
-        <v>18.07324390471211</v>
+        <v>18.073243904712</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>10.56136179589737</v>
+        <v>402.6849312194575</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.7668100334217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.07685458306334</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>211.4217225834493</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V41" t="n">
-        <v>161.0102355808911</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>4.513394429176742</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>4.803736897830561</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>62.71118198668612</v>
       </c>
       <c r="H42" t="n">
-        <v>59.93188726981874</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6383241042329</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25797,16 +25797,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>124.8255548179017</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.79600217561443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.967741803563</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.4042509883496</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9223063966386</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.8443799511404</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>13.99539844428443</v>
       </c>
       <c r="C44" t="n">
-        <v>13.89977535630243</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>8.295721184309912</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>24.69653850228917</v>
+        <v>125.0844505200282</v>
       </c>
       <c r="G44" t="n">
-        <v>400.9902107566029</v>
+        <v>402.6849312194575</v>
       </c>
       <c r="H44" t="n">
         <v>287.7668100334217</v>
       </c>
       <c r="I44" t="n">
-        <v>10.07685458306334</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>211.4217225834493</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3334012193539</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>46.03007342654315</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.93188726981874</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.47016435221904</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>149.8037396769635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.80307509321803</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>126.0584457849424</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>44.967741803563</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.2367137667202</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396220.7851803388</v>
+        <v>396220.7851803387</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>396220.7851803387</v>
+        <v>396220.7851803388</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>396220.7851803387</v>
+        <v>396220.7851803388</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>396220.7851803387</v>
+        <v>396220.7851803388</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>396220.7851803387</v>
+        <v>396220.7851803388</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>396220.7851803388</v>
+        <v>396220.7851803387</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>396220.7851803387</v>
+        <v>396220.7851803388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>396220.7851803388</v>
+        <v>396220.7851803387</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>421233.2453601948</v>
       </c>
       <c r="D2" t="n">
-        <v>421233.7811445793</v>
+        <v>421233.7811445791</v>
       </c>
       <c r="E2" t="n">
         <v>218251.8912635629</v>
       </c>
       <c r="F2" t="n">
-        <v>218251.8912635629</v>
+        <v>218251.8912635628</v>
       </c>
       <c r="G2" t="n">
         <v>218251.8912635629</v>
       </c>
       <c r="H2" t="n">
+        <v>218251.891263563</v>
+      </c>
+      <c r="I2" t="n">
         <v>218251.8912635629</v>
       </c>
-      <c r="I2" t="n">
-        <v>218251.8912635628</v>
-      </c>
       <c r="J2" t="n">
-        <v>218251.891263563</v>
+        <v>218251.8912635629</v>
       </c>
       <c r="K2" t="n">
         <v>218251.8912635628</v>
       </c>
       <c r="L2" t="n">
+        <v>218251.8912635628</v>
+      </c>
+      <c r="M2" t="n">
+        <v>218251.8912635628</v>
+      </c>
+      <c r="N2" t="n">
+        <v>218251.8912635628</v>
+      </c>
+      <c r="O2" t="n">
         <v>218251.8912635629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>218251.8912635627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>218251.891263563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>218251.8912635628</v>
       </c>
       <c r="P2" t="n">
         <v>218251.8912635628</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2206.025229897092</v>
+        <v>2206.025229897116</v>
       </c>
       <c r="E3" t="n">
-        <v>401860.8842450544</v>
+        <v>401860.8842450543</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>325810.1283086708</v>
       </c>
       <c r="D4" t="n">
-        <v>325126.1191770789</v>
+        <v>325126.119177079</v>
       </c>
       <c r="E4" t="n">
-        <v>27211.46128166181</v>
+        <v>27211.46128166183</v>
       </c>
       <c r="F4" t="n">
         <v>27211.46128166181</v>
@@ -26435,31 +26435,31 @@
         <v>27211.46128166182</v>
       </c>
       <c r="H4" t="n">
-        <v>27211.46128166181</v>
+        <v>27211.46128166182</v>
       </c>
       <c r="I4" t="n">
         <v>27211.46128166182</v>
       </c>
       <c r="J4" t="n">
-        <v>27211.46128166179</v>
+        <v>27211.46128166182</v>
       </c>
       <c r="K4" t="n">
+        <v>27211.4612816618</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27211.46128166181</v>
+      </c>
+      <c r="M4" t="n">
         <v>27211.46128166182</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>27211.4612816618</v>
+      </c>
+      <c r="O4" t="n">
         <v>27211.46128166182</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>27211.4612816618</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27211.46128166182</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27211.46128166179</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27211.46128166179</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>36507.45586302721</v>
       </c>
       <c r="E5" t="n">
-        <v>34448.39186636187</v>
+        <v>34448.39186636188</v>
       </c>
       <c r="F5" t="n">
         <v>34448.39186636187</v>
@@ -26490,7 +26490,7 @@
         <v>34448.39186636187</v>
       </c>
       <c r="I5" t="n">
-        <v>34448.39186636188</v>
+        <v>34448.39186636187</v>
       </c>
       <c r="J5" t="n">
         <v>34448.39186636187</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65842.65743391978</v>
+        <v>-65851.35349747443</v>
       </c>
       <c r="C6" t="n">
-        <v>58971.81551340484</v>
+        <v>58963.11944985013</v>
       </c>
       <c r="D6" t="n">
-        <v>57394.18087457604</v>
+        <v>57385.4868717303</v>
       </c>
       <c r="E6" t="n">
-        <v>-245268.8461295152</v>
+        <v>-246058.239708826</v>
       </c>
       <c r="F6" t="n">
-        <v>156592.0381155392</v>
+        <v>155802.6445362283</v>
       </c>
       <c r="G6" t="n">
-        <v>156592.0381155392</v>
+        <v>155802.6445362283</v>
       </c>
       <c r="H6" t="n">
-        <v>156592.0381155392</v>
+        <v>155802.6445362284</v>
       </c>
       <c r="I6" t="n">
-        <v>156592.0381155391</v>
+        <v>155802.6445362284</v>
       </c>
       <c r="J6" t="n">
-        <v>156592.0381155393</v>
+        <v>155802.6445362284</v>
       </c>
       <c r="K6" t="n">
-        <v>156592.0381155392</v>
+        <v>155802.6445362283</v>
       </c>
       <c r="L6" t="n">
-        <v>156592.0381155392</v>
+        <v>155802.6445362283</v>
       </c>
       <c r="M6" t="n">
-        <v>58873.27612091017</v>
+        <v>58083.88254159938</v>
       </c>
       <c r="N6" t="n">
-        <v>156592.0381155393</v>
+        <v>155802.6445362283</v>
       </c>
       <c r="O6" t="n">
-        <v>156592.0381155391</v>
+        <v>155802.6445362284</v>
       </c>
       <c r="P6" t="n">
-        <v>156592.0381155391</v>
+        <v>155802.6445362283</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>129.5275934917073</v>
       </c>
       <c r="D3" t="n">
-        <v>132.1034799553769</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="E3" t="n">
-        <v>486.5724241013492</v>
+        <v>486.5724241013491</v>
       </c>
       <c r="F3" t="n">
         <v>486.5724241013492</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>392.1235694235602</v>
+        <v>392.1235694235603</v>
       </c>
       <c r="F4" t="n">
         <v>392.1235694235602</v>
@@ -26810,25 +26810,25 @@
         <v>392.1235694235602</v>
       </c>
       <c r="I4" t="n">
-        <v>392.1235694235603</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="J4" t="n">
+        <v>392.1235694235602</v>
+      </c>
+      <c r="K4" t="n">
         <v>392.1235694235601</v>
-      </c>
-      <c r="K4" t="n">
-        <v>392.1235694235602</v>
       </c>
       <c r="L4" t="n">
         <v>392.1235694235602</v>
       </c>
       <c r="M4" t="n">
+        <v>392.1235694235602</v>
+      </c>
+      <c r="N4" t="n">
         <v>392.1235694235601</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>392.1235694235602</v>
-      </c>
-      <c r="O4" t="n">
-        <v>392.1235694235601</v>
       </c>
       <c r="P4" t="n">
         <v>392.1235694235601</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.575886463669548</v>
+        <v>2.575886463669576</v>
       </c>
       <c r="E3" t="n">
         <v>354.4689441459723</v>
@@ -27879,28 +27879,28 @@
         <v>28.24975120521682</v>
       </c>
       <c r="K8" t="n">
-        <v>21.58238750890047</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L8" t="n">
-        <v>11.67868484452066</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03910817678588785</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.710578808370059</v>
+        <v>3.710578808370073</v>
       </c>
       <c r="P8" t="n">
-        <v>17.28093897160522</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.68429818395123</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R8" t="n">
-        <v>53.95236302478606</v>
+        <v>53.95236302478607</v>
       </c>
       <c r="S8" t="n">
         <v>121.8265235513953</v>
@@ -27958,7 +27958,7 @@
         <v>24.52356840642668</v>
       </c>
       <c r="K9" t="n">
-        <v>9.942256166529447</v>
+        <v>9.942256166529461</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,10 +27976,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.42148944237373</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R9" t="n">
-        <v>41.35815323513827</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S9" t="n">
         <v>101.6322018848435</v>
@@ -28037,25 +28037,25 @@
         <v>34.59103480405435</v>
       </c>
       <c r="K10" t="n">
-        <v>24.57360769300591</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L10" t="n">
-        <v>19.21156748094686</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M10" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N10" t="n">
-        <v>15.25858193319223</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O10" t="n">
-        <v>22.4036701001078</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P10" t="n">
         <v>26.968289224719</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.41190018666366</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R10" t="n">
         <v>73.70878111087413</v>
@@ -31062,7 +31062,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O2" t="n">
         <v>87.73444147909908</v>
@@ -31299,7 +31299,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>87.73444147909908</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5310692661522683</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H8" t="n">
-        <v>5.438813121981919</v>
+        <v>5.438813121981918</v>
       </c>
       <c r="I8" t="n">
         <v>20.47404788333534</v>
       </c>
       <c r="J8" t="n">
-        <v>45.07384012809113</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K8" t="n">
-        <v>67.55400216431666</v>
+        <v>67.55400216431664</v>
       </c>
       <c r="L8" t="n">
-        <v>83.80671321832416</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M8" t="n">
-        <v>93.25111628025957</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>89.47919681741307</v>
+        <v>89.47919681741305</v>
       </c>
       <c r="P8" t="n">
-        <v>76.36842430927894</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.34950621520081</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R8" t="n">
-        <v>33.35977978993746</v>
+        <v>33.35977978993745</v>
       </c>
       <c r="S8" t="n">
-        <v>12.10174090244483</v>
+        <v>12.10174090244482</v>
       </c>
       <c r="T8" t="n">
-        <v>2.324755712581556</v>
+        <v>2.324755712581555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04248554129218146</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2841471078285465</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H9" t="n">
-        <v>2.744262857186226</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I9" t="n">
-        <v>9.783135072167061</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J9" t="n">
         <v>26.84567039357333</v>
       </c>
       <c r="K9" t="n">
-        <v>45.88352661808594</v>
+        <v>45.88352661808593</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -31624,19 +31624,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.27112906246499</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R9" t="n">
         <v>17.64204587026713</v>
       </c>
       <c r="S9" t="n">
-        <v>5.27790790199076</v>
+        <v>5.277907901990759</v>
       </c>
       <c r="T9" t="n">
-        <v>1.14531224602822</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0186938886729307</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>2.117986940923912</v>
       </c>
       <c r="I10" t="n">
-        <v>7.16390674905552</v>
+        <v>7.163906749055519</v>
       </c>
       <c r="J10" t="n">
         <v>16.84211087890107</v>
@@ -31688,13 +31688,13 @@
         <v>27.67676186606091</v>
       </c>
       <c r="L10" t="n">
-        <v>35.41672641295465</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M10" t="n">
-        <v>37.34197221099283</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N10" t="n">
-        <v>36.45406357522721</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O10" t="n">
         <v>33.67122797288852</v>
@@ -31712,7 +31712,7 @@
         <v>4.151514279909136</v>
       </c>
       <c r="T10" t="n">
-        <v>1.017846484902084</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U10" t="n">
         <v>0.01299378491364364</v>
@@ -31755,10 +31755,10 @@
         <v>1.956070046638588</v>
       </c>
       <c r="H11" t="n">
-        <v>20.03260236513745</v>
+        <v>20.03260236513744</v>
       </c>
       <c r="I11" t="n">
-        <v>75.41139047303425</v>
+        <v>75.41139047303423</v>
       </c>
       <c r="J11" t="n">
         <v>166.019000120892</v>
@@ -31773,13 +31773,13 @@
         <v>343.4687845768282</v>
       </c>
       <c r="N11" t="n">
-        <v>349.0264685968402</v>
+        <v>349.0264685968401</v>
       </c>
       <c r="O11" t="n">
-        <v>329.5757970705777</v>
+        <v>329.5757970705776</v>
       </c>
       <c r="P11" t="n">
-        <v>281.2853177941875</v>
+        <v>281.2853177941874</v>
       </c>
       <c r="Q11" t="n">
         <v>211.233559248943</v>
@@ -31791,7 +31791,7 @@
         <v>44.57394618777687</v>
       </c>
       <c r="T11" t="n">
-        <v>8.562696629160424</v>
+        <v>8.562696629160422</v>
       </c>
       <c r="U11" t="n">
         <v>0.156485603731087</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.046589742406676</v>
+        <v>1.046589742406675</v>
       </c>
       <c r="H12" t="n">
         <v>10.10785356482237</v>
       </c>
       <c r="I12" t="n">
-        <v>36.03390121882634</v>
+        <v>36.03390121882633</v>
       </c>
       <c r="J12" t="n">
         <v>98.87977912799211</v>
       </c>
       <c r="K12" t="n">
-        <v>169.0012918692394</v>
+        <v>169.0012918692393</v>
       </c>
       <c r="L12" t="n">
         <v>227.2430929729933</v>
@@ -31870,10 +31870,10 @@
         <v>19.43994543461521</v>
       </c>
       <c r="T12" t="n">
-        <v>4.218491110840941</v>
+        <v>4.21849111084094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06885458831622869</v>
+        <v>0.06885458831622868</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8774256828057115</v>
+        <v>0.8774256828057114</v>
       </c>
       <c r="H13" t="n">
-        <v>7.801111979854422</v>
+        <v>7.801111979854421</v>
       </c>
       <c r="I13" t="n">
         <v>26.38658326110268</v>
@@ -31928,16 +31928,16 @@
         <v>130.4492692418601</v>
       </c>
       <c r="M13" t="n">
-        <v>137.5404640783535</v>
+        <v>137.5404640783534</v>
       </c>
       <c r="N13" t="n">
         <v>134.2700592606232</v>
       </c>
       <c r="O13" t="n">
-        <v>124.0201319660292</v>
+        <v>124.0201319660291</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1206480367926</v>
+        <v>106.1206480367925</v>
       </c>
       <c r="Q13" t="n">
         <v>73.47243603930372</v>
@@ -31949,7 +31949,7 @@
         <v>15.29113667216862</v>
       </c>
       <c r="T13" t="n">
-        <v>3.749000644715312</v>
+        <v>3.749000644715311</v>
       </c>
       <c r="U13" t="n">
         <v>0.04785958269849341</v>
@@ -34371,7 +34371,7 @@
         <v>166.019000120892</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8194451951032</v>
+        <v>248.8194451951035</v>
       </c>
       <c r="L44" t="n">
         <v>308.6825238849192</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>92.69540878758409</v>
+        <v>92.69540878758406</v>
       </c>
       <c r="K11" t="n">
-        <v>159.6830555218864</v>
+        <v>159.6830555218863</v>
       </c>
       <c r="L11" t="n">
         <v>213.1971258220744</v>
       </c>
       <c r="M11" t="n">
-        <v>250.1785601197828</v>
+        <v>250.1785601197827</v>
       </c>
       <c r="N11" t="n">
-        <v>256.1141778402209</v>
+        <v>256.1141778402208</v>
       </c>
       <c r="O11" t="n">
-        <v>236.3860214447946</v>
+        <v>236.3860214447945</v>
       </c>
       <c r="P11" t="n">
         <v>187.6359545133033</v>
@@ -35433,7 +35433,7 @@
         <v>121.1997548497909</v>
       </c>
       <c r="R11" t="n">
-        <v>35.56084225243781</v>
+        <v>35.56084225243779</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>47.5105403279921</v>
       </c>
       <c r="K12" t="n">
-        <v>113.175509084624</v>
+        <v>113.1755090846239</v>
       </c>
       <c r="L12" t="n">
         <v>171.1285691621443</v>
       </c>
       <c r="M12" t="n">
-        <v>320.1186513574056</v>
+        <v>207.6176873968178</v>
       </c>
       <c r="N12" t="n">
-        <v>392.1235694235602</v>
+        <v>219.0071554438529</v>
       </c>
       <c r="O12" t="n">
-        <v>191.2588444926971</v>
+        <v>191.258844492697</v>
       </c>
       <c r="P12" t="n">
-        <v>145.5931027379938</v>
+        <v>204.8488547786234</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.90364405219589</v>
+        <v>392.1235694235603</v>
       </c>
       <c r="R12" t="n">
-        <v>94.83847051326171</v>
+        <v>5.980171041563473</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.60085009140838</v>
+        <v>76.25879315336432</v>
       </c>
       <c r="K13" t="n">
-        <v>49.690541588724</v>
+        <v>258.0543734934857</v>
       </c>
       <c r="L13" t="n">
-        <v>259.4560872091209</v>
+        <v>392.1235694235603</v>
       </c>
       <c r="M13" t="n">
-        <v>392.1235694235602</v>
+        <v>81.27552157957339</v>
       </c>
       <c r="N13" t="n">
-        <v>392.1235694235602</v>
+        <v>82.55741375220374</v>
       </c>
       <c r="O13" t="n">
-        <v>386.2025666392354</v>
+        <v>386.2025666392353</v>
       </c>
       <c r="P13" t="n">
-        <v>50.34080639688778</v>
+        <v>264.0657527310742</v>
       </c>
       <c r="Q13" t="n">
         <v>12.11291037937815</v>
@@ -35728,7 +35728,7 @@
         <v>293.6402413124702</v>
       </c>
       <c r="K15" t="n">
-        <v>113.175509084624</v>
+        <v>241.5214855121392</v>
       </c>
       <c r="L15" t="n">
         <v>171.1285691621443</v>
@@ -35746,10 +35746,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.3913210080131</v>
+        <v>76.90364405219589</v>
       </c>
       <c r="R15" t="n">
-        <v>94.83847051326171</v>
+        <v>5.980171041563473</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>76.25879315336434</v>
       </c>
       <c r="K16" t="n">
-        <v>258.0543734934857</v>
+        <v>49.690541588724</v>
       </c>
       <c r="L16" t="n">
-        <v>222.1755343175833</v>
+        <v>193.7981441471649</v>
       </c>
       <c r="M16" t="n">
         <v>392.1235694235602</v>
       </c>
       <c r="N16" t="n">
-        <v>82.55741375220374</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="O16" t="n">
-        <v>67.94523389303282</v>
+        <v>386.2025666392354</v>
       </c>
       <c r="P16" t="n">
-        <v>313.873617985896</v>
+        <v>50.34080639688778</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.662365132749</v>
+        <v>12.11291037937815</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.4927957528641</v>
       </c>
       <c r="J18" t="n">
-        <v>47.5105403279921</v>
+        <v>293.6402413124702</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1755090846239</v>
+        <v>137.1703902875773</v>
       </c>
       <c r="L18" t="n">
         <v>171.1285691621443</v>
@@ -35983,10 +35983,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q18" t="n">
-        <v>392.1235694235602</v>
+        <v>76.90364405219586</v>
       </c>
       <c r="R18" t="n">
-        <v>65.23592308219278</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.60085009140838</v>
+        <v>76.25879315336432</v>
       </c>
       <c r="K19" t="n">
-        <v>49.69054158872399</v>
+        <v>169.6224490585312</v>
       </c>
       <c r="L19" t="n">
-        <v>259.4560872091209</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="M19" t="n">
         <v>392.1235694235602</v>
@@ -36056,7 +36056,7 @@
         <v>392.1235694235602</v>
       </c>
       <c r="O19" t="n">
-        <v>386.2025666392353</v>
+        <v>67.94523389303282</v>
       </c>
       <c r="P19" t="n">
         <v>50.34080639688776</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>76.25879315336432</v>
+        <v>10.60085009140838</v>
       </c>
       <c r="K22" t="n">
-        <v>258.0543734934857</v>
+        <v>227.8711072182715</v>
       </c>
       <c r="L22" t="n">
-        <v>222.1755343175833</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="M22" t="n">
+        <v>81.27552157957339</v>
+      </c>
+      <c r="N22" t="n">
         <v>392.1235694235602</v>
       </c>
-      <c r="N22" t="n">
-        <v>82.55741375220374</v>
-      </c>
       <c r="O22" t="n">
-        <v>67.94523389303282</v>
+        <v>386.2025666392353</v>
       </c>
       <c r="P22" t="n">
-        <v>313.873617985896</v>
+        <v>50.34080639688776</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.662365132749</v>
+        <v>12.11291037937815</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>15.4927957528641</v>
       </c>
       <c r="J24" t="n">
-        <v>47.5105403279921</v>
+        <v>293.6402413124702</v>
       </c>
       <c r="K24" t="n">
         <v>113.1755090846239</v>
       </c>
       <c r="L24" t="n">
-        <v>392.1235694235603</v>
+        <v>171.1285691621443</v>
       </c>
       <c r="M24" t="n">
-        <v>345.6055687945316</v>
+        <v>207.6176873968178</v>
       </c>
       <c r="N24" t="n">
         <v>219.0071554438529</v>
@@ -36457,10 +36457,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.90364405219586</v>
+        <v>100.8985252551491</v>
       </c>
       <c r="R24" t="n">
-        <v>5.980171041563473</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>76.25879315336432</v>
+        <v>10.60085009140838</v>
       </c>
       <c r="K25" t="n">
-        <v>258.0543734934857</v>
+        <v>227.8711072182715</v>
       </c>
       <c r="L25" t="n">
-        <v>349.7249890709541</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="M25" t="n">
-        <v>392.1235694235603</v>
+        <v>81.27552157957339</v>
       </c>
       <c r="N25" t="n">
-        <v>82.55741375220374</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="O25" t="n">
-        <v>67.94523389303282</v>
+        <v>386.2025666392353</v>
       </c>
       <c r="P25" t="n">
-        <v>313.873617985896</v>
+        <v>50.34080639688776</v>
       </c>
       <c r="Q25" t="n">
         <v>12.11291037937815</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.4927957528641</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>293.6402413124702</v>
@@ -36694,7 +36694,7 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.8985252551487</v>
+        <v>116.3913210080133</v>
       </c>
       <c r="R27" t="n">
         <v>94.83847051326171</v>
@@ -36755,22 +36755,22 @@
         <v>76.25879315336432</v>
       </c>
       <c r="K28" t="n">
-        <v>258.0543734934857</v>
+        <v>49.69054158872399</v>
       </c>
       <c r="L28" t="n">
-        <v>349.7249890709535</v>
+        <v>193.798144147165</v>
       </c>
       <c r="M28" t="n">
-        <v>392.1235694235601</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="N28" t="n">
-        <v>82.55741375220374</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="O28" t="n">
-        <v>67.94523389303282</v>
+        <v>386.2025666392353</v>
       </c>
       <c r="P28" t="n">
-        <v>313.873617985896</v>
+        <v>50.34080639688776</v>
       </c>
       <c r="Q28" t="n">
         <v>12.11291037937815</v>
@@ -36913,7 +36913,7 @@
         <v>293.6402413124702</v>
       </c>
       <c r="K30" t="n">
-        <v>137.1703902875773</v>
+        <v>113.1755090846239</v>
       </c>
       <c r="L30" t="n">
         <v>171.1285691621443</v>
@@ -36931,7 +36931,7 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.90364405219586</v>
+        <v>100.8985252551487</v>
       </c>
       <c r="R30" t="n">
         <v>94.83847051326171</v>
@@ -36992,25 +36992,25 @@
         <v>76.25879315336432</v>
       </c>
       <c r="K31" t="n">
-        <v>167.6677103879304</v>
+        <v>258.0543734934857</v>
       </c>
       <c r="L31" t="n">
         <v>75.82097534795855</v>
       </c>
       <c r="M31" t="n">
-        <v>392.1235694235602</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="N31" t="n">
-        <v>392.1235694235602</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="O31" t="n">
-        <v>386.2025666392353</v>
+        <v>67.94523389303282</v>
       </c>
       <c r="P31" t="n">
-        <v>50.34080639688776</v>
+        <v>150.6620212841637</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.11291037937815</v>
+        <v>139.662365132749</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>15.4927957528641</v>
       </c>
       <c r="J33" t="n">
-        <v>47.5105403279921</v>
+        <v>293.6402413124702</v>
       </c>
       <c r="K33" t="n">
         <v>113.1755090846239</v>
       </c>
       <c r="L33" t="n">
-        <v>392.1235694235602</v>
+        <v>171.1285691621443</v>
       </c>
       <c r="M33" t="n">
-        <v>345.6055687945316</v>
+        <v>207.6176873968178</v>
       </c>
       <c r="N33" t="n">
         <v>219.0071554438529</v>
@@ -37168,10 +37168,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.90364405219586</v>
+        <v>100.8985252551491</v>
       </c>
       <c r="R33" t="n">
-        <v>5.980171041563473</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,19 +37235,19 @@
         <v>392.1235694235602</v>
       </c>
       <c r="M34" t="n">
-        <v>392.1235694235602</v>
+        <v>81.27552157957339</v>
       </c>
       <c r="N34" t="n">
         <v>82.55741375220374</v>
       </c>
       <c r="O34" t="n">
-        <v>67.94523389303282</v>
+        <v>208.8452466310426</v>
       </c>
       <c r="P34" t="n">
-        <v>271.4750376332896</v>
+        <v>313.873617985896</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.11291037937815</v>
+        <v>139.662365132749</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>47.5105403279921</v>
       </c>
       <c r="K36" t="n">
-        <v>225.6279240581867</v>
+        <v>113.1755090846239</v>
       </c>
       <c r="L36" t="n">
         <v>171.1285691621443</v>
@@ -37402,13 +37402,13 @@
         <v>191.258844492697</v>
       </c>
       <c r="P36" t="n">
-        <v>392.1235694235601</v>
+        <v>145.5931027379938</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.90364405219586</v>
+        <v>347.0282262396272</v>
       </c>
       <c r="R36" t="n">
-        <v>5.980171041563473</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>76.25879315336432</v>
+        <v>10.60085009140838</v>
       </c>
       <c r="K37" t="n">
         <v>49.69054158872399</v>
       </c>
       <c r="L37" t="n">
-        <v>392.1235694235601</v>
+        <v>259.4560872091209</v>
       </c>
       <c r="M37" t="n">
-        <v>375.8148450651503</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="N37" t="n">
-        <v>82.55741375220374</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="O37" t="n">
         <v>386.2025666392353</v>
@@ -37484,7 +37484,7 @@
         <v>50.34080639688776</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.662365132749</v>
+        <v>12.11291037937815</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.4927957528641</v>
       </c>
       <c r="J39" t="n">
-        <v>47.5105403279921</v>
+        <v>293.6402413124702</v>
       </c>
       <c r="K39" t="n">
         <v>113.1755090846239</v>
       </c>
       <c r="L39" t="n">
-        <v>392.1235694235602</v>
+        <v>171.1285691621443</v>
       </c>
       <c r="M39" t="n">
         <v>207.6176873968178</v>
@@ -37636,13 +37636,13 @@
         <v>219.0071554438529</v>
       </c>
       <c r="O39" t="n">
-        <v>255.8812221715767</v>
+        <v>191.258844492697</v>
       </c>
       <c r="P39" t="n">
         <v>145.5931027379938</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.90364405219586</v>
+        <v>100.8985252551487</v>
       </c>
       <c r="R39" t="n">
         <v>94.83847051326171</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>10.60085009140838</v>
+        <v>76.25879315336432</v>
       </c>
       <c r="K40" t="n">
-        <v>49.69054158872399</v>
+        <v>258.0543734934857</v>
       </c>
       <c r="L40" t="n">
-        <v>131.9066324557501</v>
+        <v>349.7249890709535</v>
       </c>
       <c r="M40" t="n">
-        <v>392.1235694235602</v>
+        <v>392.1235694235601</v>
       </c>
       <c r="N40" t="n">
-        <v>392.1235694235602</v>
+        <v>82.55741375220374</v>
       </c>
       <c r="O40" t="n">
-        <v>386.2025666392353</v>
+        <v>67.94523389303282</v>
       </c>
       <c r="P40" t="n">
-        <v>50.34080639688776</v>
+        <v>313.873617985896</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.662365132749</v>
+        <v>12.11291037937815</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.7568247268468</v>
+        <v>100.8985252551491</v>
       </c>
       <c r="R42" t="n">
-        <v>5.980171041563473</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>76.25879315336432</v>
+        <v>10.60085009140838</v>
       </c>
       <c r="K43" t="n">
         <v>258.0543734934857</v>
       </c>
       <c r="L43" t="n">
-        <v>392.1235694235601</v>
+        <v>392.1235694235602</v>
       </c>
       <c r="M43" t="n">
-        <v>222.1755343175828</v>
+        <v>81.27552157957339</v>
       </c>
       <c r="N43" t="n">
         <v>82.55741375220374</v>
       </c>
       <c r="O43" t="n">
-        <v>67.94523389303282</v>
+        <v>274.5031896929987</v>
       </c>
       <c r="P43" t="n">
         <v>313.873617985896</v>
@@ -38019,7 +38019,7 @@
         <v>92.69540878758406</v>
       </c>
       <c r="K44" t="n">
-        <v>159.6830555218861</v>
+        <v>159.6830555218863</v>
       </c>
       <c r="L44" t="n">
         <v>213.1971258220744</v>
@@ -38116,10 +38116,10 @@
         <v>145.5931027379938</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.7568247268468</v>
+        <v>100.8985252551487</v>
       </c>
       <c r="R45" t="n">
-        <v>5.980171041563473</v>
+        <v>94.83847051326171</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>258.0543734934857</v>
       </c>
       <c r="L46" t="n">
-        <v>176.1421902352347</v>
+        <v>222.1755343175828</v>
       </c>
       <c r="M46" t="n">
         <v>392.1235694235601</v>
       </c>
       <c r="N46" t="n">
-        <v>392.1235694235601</v>
+        <v>82.55741375220374</v>
       </c>
       <c r="O46" t="n">
         <v>67.94523389303282</v>
       </c>
       <c r="P46" t="n">
-        <v>50.34080639688776</v>
+        <v>313.873617985896</v>
       </c>
       <c r="Q46" t="n">
         <v>139.662365132749</v>
